--- a/public/preprocessing/@BuyaSyafii.xlsx
+++ b/public/preprocessing/@BuyaSyafii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:I101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,15 +456,20 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>tweet_tokens_alay</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>tweet_tokens_fdist</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_WSW</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_stemmed</t>
         </is>
@@ -475,34 +480,39 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>14350</v>
+        <v>29848</v>
       </c>
       <c r="C2" t="n">
-        <v>184</v>
+        <v>349</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">rt simak yg sekarang menjadi pasien mengucapkan ulang tahun utk rspku gamping sehat selalu buya </t>
+          <t>rt semoga sehat selalu buya sholat jumat di masjid nogotirto kasihan sleman diy</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['rt', 'simak', 'yg', 'sekarang', 'menjadi', 'pasien', 'mengucapkan', 'ulang', 'tahun', 'utk', 'rspku', 'gamping', 'sehat', 'selalu', 'buya']</t>
+          <t>['rt', 'semoga', 'sehat', 'selalu', 'buya', 'sholat', 'jumat', 'di', 'masjid', 'nogotirto', 'kasihan', 'sleman', 'diy']</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['rt', 'semoga', 'sehat', 'selalu', 'buya', 'salat', 'jumat', 'di', 'masjid', 'nogotirto', 'kasihan', 'sleman', 'diy']</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['simak', 'pasien', 'ulang', 'rspku', 'gamping', 'sehat', 'buya']</t>
+          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['simak', 'pasien', 'ulang', 'rspku', 'gamping', 'sehat', 'buya']</t>
+          <t>['semoga', 'sehat', 'buya', 'salat', 'jumat', 'masjid', 'nogotirto', 'kasihan', 'sleman', 'diy']</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>['moga', 'sehat', 'buya', 'salat', 'jumat', 'masjid', 'nogotirto', 'kasihan', 'sleman', 'diy']</t>
         </is>
       </c>
     </row>
@@ -511,34 +521,39 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>14351</v>
+        <v>29849</v>
       </c>
       <c r="C3" t="n">
-        <v>184</v>
+        <v>349</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>rt lipi dapat kiriman buku mencari negarawan tahun buya ahmad syafii maarif dg pengantar buya amp penutup buya</t>
+          <t xml:space="preserve">rt id saya percaya milad ini akan menjadi momentum penting untuk mengasah diri agar imm kader anggota dan para pimpinannya </t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['rt', 'lipi', 'dapat', 'kiriman', 'buku', 'mencari', 'negarawan', 'tahun', 'buya', 'ahmad', 'syafii', 'maarif', 'dg', 'pengantar', 'buya', 'amp', 'penutup', 'buya']</t>
+          <t>['rt', 'id', 'saya', 'percaya', 'milad', 'ini', 'akan', 'menjadi', 'momentum', 'penting', 'untuk', 'mengasah', 'diri', 'agar', 'imm', 'kader', 'anggota', 'dan', 'para', 'pimpinannya']</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 18 outcomes&gt;</t>
+          <t>['rt', 'id', 'saya', 'percaya', 'milad', 'ini', 'akan', 'menjadi', 'momentum', 'penting', 'untuk', 'mengasah', 'diri', 'agar', 'imm', 'kader', 'anggota', 'dan', 'para', 'pimpinannya']</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['lipi', 'kiriman', 'buku', 'mencari', 'negarawan', 'buya', 'ahmad', 'syafii', 'maarif', 'pengantar', 'buya', 'penutup', 'buya']</t>
+          <t>&lt;FreqDist with 20 samples and 20 outcomes&gt;</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['lipi', 'kirim', 'buku', 'cari', 'negarawan', 'buya', 'ahmad', 'syafii', 'maarif', 'antar', 'buya', 'tutup', 'buya']</t>
+          <t>['id', 'percaya', 'milad', 'momentum', 'mengasah', 'imm', 'kader', 'anggota', 'pimpinannya']</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>['id', 'percaya', 'milad', 'momentum', 'asah', 'imm', 'kader', 'anggota', 'pimpin']</t>
         </is>
       </c>
     </row>
@@ -547,34 +562,39 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>14352</v>
+        <v>29850</v>
       </c>
       <c r="C4" t="n">
-        <v>184</v>
+        <v>349</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>rt mukti belajar kearifan dari buya maarif silakan order di sini</t>
+          <t>rt id cc</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['rt', 'mukti', 'belajar', 'kearifan', 'dari', 'buya', 'maarif', 'silakan', 'order', 'di', 'sini']</t>
+          <t>['rt', 'id', 'cc']</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
+          <t>['rt', 'id', 'cc']</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['mukti', 'belajar', 'kearifan', 'buya', 'maarif', 'silakan', 'order']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['mukti', 'ajar', 'arif', 'buya', 'maarif', 'sila', 'order']</t>
+          <t>['id', 'cc']</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>['id', 'cc']</t>
         </is>
       </c>
     </row>
@@ -583,34 +603,39 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>14353</v>
+        <v>29851</v>
       </c>
       <c r="C5" t="n">
-        <v>184</v>
+        <v>349</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>rt zacky khairul umam kandidat doktor dari freie universitaet berlin wakil kepala abdurrahman wahid center for peace and hu</t>
+          <t>rt selamat jadilah gerakan intelektual arus utama di indonesia dengan semakin mempertajam wawasan</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['rt', 'zacky', 'khairul', 'umam', 'kandidat', 'doktor', 'dari', 'freie', 'universitaet', 'berlin', 'wakil', 'kepala', 'abdurrahman', 'wahid', 'center', 'for', 'peace', 'and', 'hu']</t>
+          <t>['rt', 'selamat', 'jadilah', 'gerakan', 'intelektual', 'arus', 'utama', 'di', 'indonesia', 'dengan', 'semakin', 'mempertajam', 'wawasan']</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
+          <t>['rt', 'selamat', 'jadilah', 'gerakan', 'intelektual', 'arus', 'utama', 'di', 'indonesia', 'dengan', 'semakin', 'mempertajam', 'wawasan']</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['zacky', 'khairul', 'umam', 'kandidat', 'doktor', 'freie', 'universitaet', 'berlin', 'wakil', 'kepala', 'abdurrahman', 'wahid', 'center', 'for', 'peace', 'and', 'hu']</t>
+          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['zacky', 'khairul', 'umam', 'kandidat', 'doktor', 'freie', 'universitaet', 'lin', 'wakil', 'kepala', 'abdurrahman', 'wahid', 'center', 'for', 'peace', 'and', 'hu']</t>
+          <t>['selamat', 'gerakan', 'intelektual', 'arus', 'utama', 'indonesia', 'mempertajam', 'wawasan']</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>['selamat', 'gera', 'intelektual', 'arus', 'utama', 'indonesia', 'tajam', 'wawas']</t>
         </is>
       </c>
     </row>
@@ -619,34 +644,39 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>14354</v>
+        <v>29852</v>
       </c>
       <c r="C6" t="n">
-        <v>184</v>
+        <v>349</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>tidak ada paksaan untuk beragama</t>
+          <t>selamat milad ke imm jadilah gerakan intelektual arus utama di indonesia dengan semakin mempertajam wawasan ke</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['tidak', 'ada', 'paksaan', 'untuk', 'beragama']</t>
+          <t>['selamat', 'milad', 'ke', 'imm', 'jadilah', 'gerakan', 'intelektual', 'arus', 'utama', 'di', 'indonesia', 'dengan', 'semakin', 'mempertajam', 'wawasan', 'ke']</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['selamat', 'milad', 'ke', 'imm', 'jadilah', 'gerakan', 'intelektual', 'arus', 'utama', 'di', 'indonesia', 'dengan', 'semakin', 'mempertajam', 'wawasan', 'ke']</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['paksaan', 'beragama']</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['paksa', 'agama']</t>
+          <t>['selamat', 'milad', 'imm', 'gerakan', 'intelektual', 'arus', 'utama', 'indonesia', 'mempertajam', 'wawasan']</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>['selamat', 'milad', 'imm', 'gera', 'intelektual', 'arus', 'utama', 'indonesia', 'tajam', 'wawas']</t>
         </is>
       </c>
     </row>
@@ -655,34 +685,39 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>14355</v>
+        <v>29853</v>
       </c>
       <c r="C7" t="n">
-        <v>184</v>
+        <v>349</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>rt pikiran baik harus disebarluaskan tulisan pak di hari ini bravo</t>
+          <t xml:space="preserve">rt selamat milad ke imm milad kali ini bagi imm harus menjadi momentum penting untuk mengasah diri agar kader anggota dan </t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>['rt', 'pikiran', 'baik', 'harus', 'disebarluaskan', 'tulisan', 'pak', 'di', 'hari', 'ini', 'bravo']</t>
+          <t>['rt', 'selamat', 'milad', 'ke', 'imm', 'milad', 'kali', 'ini', 'bagi', 'imm', 'harus', 'menjadi', 'momentum', 'penting', 'untuk', 'mengasah', 'diri', 'agar', 'kader', 'anggota', 'dan']</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
+          <t>['rt', 'selamat', 'milad', 'ke', 'imm', 'milad', 'kali', 'ini', 'bagi', 'imm', 'harus', 'menjadi', 'momentum', 'penting', 'untuk', 'mengasah', 'diri', 'agar', 'kader', 'anggota', 'dan']</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['pikiran', 'disebarluaskan', 'tulisan', 'bravo']</t>
+          <t>&lt;FreqDist with 19 samples and 21 outcomes&gt;</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['pikir', 'disebarluaskan', 'tulis', 'bravo']</t>
+          <t>['selamat', 'milad', 'imm', 'milad', 'kali', 'imm', 'momentum', 'mengasah', 'kader', 'anggota']</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>['selamat', 'milad', 'imm', 'milad', 'kali', 'imm', 'momentum', 'asah', 'kader', 'anggota']</t>
         </is>
       </c>
     </row>
@@ -691,34 +726,39 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>14356</v>
+        <v>29854</v>
       </c>
       <c r="C8" t="n">
-        <v>184</v>
+        <v>349</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>rt tulisan di hari ini foto koran dari mas</t>
+          <t>rt selamat milad th imm teruslah menghimpun menggerakkan dan membina potensi mahasiswa islam sehingga bertumbuh kaderkad</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>['rt', 'tulisan', 'di', 'hari', 'ini', 'foto', 'koran', 'dari', 'mas']</t>
+          <t>['rt', 'selamat', 'milad', 'th', 'imm', 'teruslah', 'menghimpun', 'menggerakkan', 'dan', 'membina', 'potensi', 'mahasiswa', 'islam', 'sehingga', 'bertumbuh', 'kaderkad']</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
+          <t>['rt', 'selamat', 'milad', 'tahun', 'imm', 'teruslah', 'menghimpun', 'menggerakkan', 'dan', 'membina', 'potensi', 'mahasiswa', 'islam', 'sehingga', 'bertumbuh', 'kaderkad']</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['tulisan', 'foto', 'koran', 'mas']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['tulis', 'foto', 'koran', 'mas']</t>
+          <t>['selamat', 'milad', 'imm', 'teruslah', 'menghimpun', 'menggerakkan', 'membina', 'potensi', 'mahasiswa', 'islam', 'bertumbuh', 'kaderkad']</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>['selamat', 'milad', 'imm', 'terus', 'himpun', 'gerak', 'bina', 'potensi', 'mahasiswa', 'islam', 'tumbuh', 'kaderkad']</t>
         </is>
       </c>
     </row>
@@ -727,34 +767,39 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>14357</v>
+        <v>29855</v>
       </c>
       <c r="C9" t="n">
-        <v>184</v>
+        <v>349</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>rt yang busuk dengan mudah saja dikemas dalam bungkus harum sehingga kepalsuan seperti telah jadi norma https</t>
+          <t>rt selamat milad ikatan mahasiswa muhammadiyah imm ke semoga dapat terus melahirkan generasigenerasi unggul untuk aga</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>['rt', 'yang', 'busuk', 'dengan', 'mudah', 'saja', 'dikemas', 'dalam', 'bungkus', 'harum', 'sehingga', 'kepalsuan', 'seperti', 'telah', 'jadi', 'norma', 'https']</t>
+          <t>['rt', 'selamat', 'milad', 'ikatan', 'mahasiswa', 'muhammadiyah', 'imm', 'ke', 'semoga', 'dapat', 'terus', 'melahirkan', 'generasigenerasi', 'unggul', 'untuk', 'aga']</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['rt', 'selamat', 'milad', 'ikatan', 'mahasiswa', 'muhammadiyah', 'imm', 'ke', 'semoga', 'dapat', 'terus', 'melahirkan', 'generasigenerasi', 'unggul', 'untuk', 'aga']</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['busuk', 'mudah', 'dikemas', 'bungkus', 'harum', 'kepalsuan', 'norma', 'https']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['busuk', 'mudah', 'kemas', 'bungkus', 'harum', 'palsu', 'norma', 'https']</t>
+          <t>['selamat', 'milad', 'ikatan', 'mahasiswa', 'muhammadiyah', 'imm', 'semoga', 'melahirkan', 'generasigenerasi', 'unggul', 'aga']</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>['selamat', 'milad', 'ikat', 'mahasiswa', 'muhammadiyah', 'imm', 'moga', 'lahir', 'generasigenerasi', 'unggul', 'aga']</t>
         </is>
       </c>
     </row>
@@ -763,34 +808,39 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>14358</v>
+        <v>29856</v>
       </c>
       <c r="C10" t="n">
-        <v>184</v>
+        <v>349</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>rt muhammadiyah rumah besar toleransi adalah sebuah citacita besar yang menjadi idealisme begitulah kata mey</t>
+          <t>rt memang top</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>['rt', 'muhammadiyah', 'rumah', 'besar', 'toleransi', 'adalah', 'sebuah', 'citacita', 'besar', 'yang', 'menjadi', 'idealisme', 'begitulah', 'kata', 'mey']</t>
+          <t>['rt', 'memang', 'top']</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
+          <t>['rt', 'memang', 'top']</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['muhammadiyah', 'rumah', 'toleransi', 'citacita', 'idealisme', 'mey']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['muhammadiyah', 'rumah', 'toleransi', 'citacita', 'idealisme', 'mey']</t>
+          <t>['top']</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>['top']</t>
         </is>
       </c>
     </row>
@@ -799,34 +849,39 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>14359</v>
+        <v>29857</v>
       </c>
       <c r="C11" t="n">
-        <v>184</v>
+        <v>349</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>rt ngaji bareng buya lewat republika hari ini</t>
+          <t>rt imm lahir di tengah krisis dan hadir utk memberi solusi maka semua kader dan alumni imm harus hadir memberi solusi bag</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>['rt', 'ngaji', 'bareng', 'buya', 'lewat', 'republika', 'hari', 'ini']</t>
+          <t>['rt', 'imm', 'lahir', 'di', 'tengah', 'krisis', 'dan', 'hadir', 'utk', 'memberi', 'solusi', 'maka', 'semua', 'kader', 'dan', 'alumni', 'imm', 'harus', 'hadir', 'memberi', 'solusi', 'bag']</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['rt', 'imm', 'lahir', 'di', 'tengah', 'krisis', 'dan', 'hadir', 'untuk', 'memberi', 'solusi', 'maka', 'semua', 'kader', 'dan', 'alumni', 'imm', 'harus', 'hadir', 'memberi', 'solusi', 'bag']</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['ngaji', 'bareng', 'buya', 'republika']</t>
+          <t>&lt;FreqDist with 17 samples and 22 outcomes&gt;</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['ngaji', 'bareng', 'buya', 'republika']</t>
+          <t>['imm', 'lahir', 'krisis', 'hadir', 'solusi', 'kader', 'alumni', 'imm', 'hadir', 'solusi', 'bag']</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>['imm', 'lahir', 'krisis', 'hadir', 'solusi', 'kader', 'alumni', 'imm', 'hadir', 'solusi', 'bag']</t>
         </is>
       </c>
     </row>
@@ -835,34 +890,39 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>14360</v>
+        <v>29858</v>
       </c>
       <c r="C12" t="n">
-        <v>184</v>
+        <v>349</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>rt tulisan di kompas hari ini patut disimak menurut buya muhammadiyahnu adalah benteng utama utk membendun</t>
+          <t>rt rahajeng nyanggra rahina nyepi caka dalam hening mari berhenti sesaat untuk langkah baru yang lebih baik selam</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>['rt', 'tulisan', 'di', 'kompas', 'hari', 'ini', 'patut', 'disimak', 'menurut', 'buya', 'muhammadiyahnu', 'adalah', 'benteng', 'utama', 'utk', 'membendun']</t>
+          <t>['rt', 'rahajeng', 'nyanggra', 'rahina', 'nyepi', 'caka', 'dalam', 'hening', 'mari', 'berhenti', 'sesaat', 'untuk', 'langkah', 'baru', 'yang', 'lebih', 'baik', 'selam']</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['rt', 'rahajeng', 'nyanggra', 'rahina', 'nyepi', 'caka', 'dalam', 'hening', 'mari', 'berhenti', 'sesaat', 'untuk', 'langkah', 'baru', 'yang', 'lebih', 'baik', 'selam']</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['tulisan', 'kompas', 'patut', 'disimak', 'buya', 'muhammadiyahnu', 'benteng', 'utama', 'membendun']</t>
+          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['tulis', 'kompas', 'patut', 'simak', 'buya', 'muhammadiyahnu', 'benteng', 'utama', 'membendun']</t>
+          <t>['rahajeng', 'nyanggra', 'rahina', 'nyepi', 'caka', 'hening', 'mari', 'berhenti', 'langkah', 'selam']</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>['rahajeng', 'nyanggra', 'rahina', 'nyepi', 'caka', 'hening', 'mari', 'henti', 'langkah', 'selam']</t>
         </is>
       </c>
     </row>
@@ -871,34 +931,39 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>14361</v>
+        <v>29859</v>
       </c>
       <c r="C13" t="n">
-        <v>184</v>
+        <v>349</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>rt khoirudin pesan untuk dan dan harus berpikir besar</t>
+          <t>rt selamat milad ke untuk makin teguh berkhidmat membumikan gagasan membangun peradaban dengan ilmu</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>['rt', 'khoirudin', 'pesan', 'untuk', 'dan', 'dan', 'harus', 'berpikir', 'besar']</t>
+          <t>['rt', 'selamat', 'milad', 'ke', 'untuk', 'makin', 'teguh', 'berkhidmat', 'membumikan', 'gagasan', 'membangun', 'peradaban', 'dengan', 'ilmu']</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 9 outcomes&gt;</t>
+          <t>['rt', 'selamat', 'milad', 'ke', 'untuk', 'makin', 'teguh', 'berkhidmat', 'membumikan', 'gagasan', 'membangun', 'peradaban', 'dengan', 'ilmu']</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['khoirudin', 'pesan', 'berpikir']</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['khoirudin', 'pesan', 'pikir']</t>
+          <t>['selamat', 'milad', 'teguh', 'berkhidmat', 'membumikan', 'gagasan', 'membangun', 'peradaban', 'ilmu']</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>['selamat', 'milad', 'teguh', 'khidmat', 'bumi', 'gagas', 'bangun', 'adab', 'ilmu']</t>
         </is>
       </c>
     </row>
@@ -907,34 +972,39 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>14362</v>
+        <v>29860</v>
       </c>
       <c r="C14" t="n">
-        <v>184</v>
+        <v>349</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>rt buya asm selalu menjadi oase sekaligus kompas buat bangsa ini menatap kedepan dengan lebih baik terima kasih selalu menj</t>
+          <t>rt as lipi  ma</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>['rt', 'buya', 'asm', 'selalu', 'menjadi', 'oase', 'sekaligus', 'kompas', 'buat', 'bangsa', 'ini', 'menatap', 'kedepan', 'dengan', 'lebih', 'baik', 'terima', 'kasih', 'selalu', 'menj']</t>
+          <t>['rt', 'as', 'lipi', 'ma']</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 20 outcomes&gt;</t>
+          <t>['rt', 'as', 'lembaga, ilmu, pengetahuan, indonesia', 'sama']</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['buya', 'asm', 'oase', 'kompas', 'bangsa', 'menatap', 'kedepan', 'terima', 'kasih', 'menj']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['buya', 'asm', 'oase', 'kompas', 'bangsa', 'tatap', 'depan', 'terima', 'kasih', 'menj']</t>
+          <t>['as', 'lembaga, ilmu, pengetahuan, indonesia']</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>['as', 'lembaga ilmu tahu indonesia']</t>
         </is>
       </c>
     </row>
@@ -943,34 +1013,39 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>14363</v>
+        <v>29861</v>
       </c>
       <c r="C15" t="n">
-        <v>184</v>
+        <v>349</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>rt ri muhammadiyah dan nu mesti bergandengan tangan untuk menjaga keutuhan indonesia pesan di</t>
+          <t>rt dulu waktu jadi aktivis imm sering menulis di korankoran salah satunya di koran indopos rubrik prokon aktivis seper</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>['rt', 'ri', 'muhammadiyah', 'dan', 'nu', 'mesti', 'bergandengan', 'tangan', 'untuk', 'menjaga', 'keutuhan', 'indonesia', 'pesan', 'di']</t>
+          <t>['rt', 'dulu', 'waktu', 'jadi', 'aktivis', 'imm', 'sering', 'menulis', 'di', 'korankoran', 'salah', 'satunya', 'di', 'koran', 'indopos', 'rubrik', 'prokon', 'aktivis', 'seper']</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>['rt', 'dulu', 'waktu', 'jadi', 'aktivis', 'imm', 'sering', 'menulis', 'di', 'korankoran', 'salah', 'satunya', 'di', 'koran', 'indopos', 'rubrik', 'prokon', 'aktivis', 'seper']</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['ri', 'muhammadiyah', 'nu', 'mesti', 'bergandengan', 'tangan', 'menjaga', 'keutuhan', 'indonesia', 'pesan']</t>
+          <t>&lt;FreqDist with 17 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['ri', 'muhammadiyah', 'nu', 'mesti', 'gandeng', 'tangan', 'jaga', 'utuh', 'indonesia', 'pesan']</t>
+          <t>['aktivis', 'imm', 'menulis', 'korankoran', 'salah', 'satunya', 'koran', 'indopos', 'rubrik', 'prokon', 'aktivis', 'seper']</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>['aktivis', 'imm', 'tulis', 'korankoran', 'salah', 'satu', 'koran', 'indopos', 'rubrik', 'prokon', 'aktivis', 'per']</t>
         </is>
       </c>
     </row>
@@ -979,34 +1054,39 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>14364</v>
+        <v>29862</v>
       </c>
       <c r="C16" t="n">
-        <v>184</v>
+        <v>349</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>rt faishalz ini nih bagi temen temen yang mau tau tulisan se</t>
+          <t>rt selamat jadilah gerakan intelektual arus utama di indonesia dengan semakin mempertajam wawasan keindonesiaan kei</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>['rt', 'faishalz', 'ini', 'nih', 'bagi', 'temen', 'temen', 'yang', 'mau', 'tau', 'tulisan', 'se']</t>
+          <t>['rt', 'selamat', 'jadilah', 'gerakan', 'intelektual', 'arus', 'utama', 'di', 'indonesia', 'dengan', 'semakin', 'mempertajam', 'wawasan', 'keindonesiaan', 'kei']</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 12 outcomes&gt;</t>
+          <t>['rt', 'selamat', 'jadilah', 'gerakan', 'intelektual', 'arus', 'utama', 'di', 'indonesia', 'dengan', 'semakin', 'mempertajam', 'wawasan', 'keindonesiaan', 'kei']</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['faishalz', 'temen', 'temen', 'tulisan']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['faishalz', 'temen', 'temen', 'tulis']</t>
+          <t>['selamat', 'gerakan', 'intelektual', 'arus', 'utama', 'indonesia', 'mempertajam', 'wawasan', 'keindonesiaan', 'kei']</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>['selamat', 'gera', 'intelektual', 'arus', 'utama', 'indonesia', 'tajam', 'wawas', 'indonesia', 'kei']</t>
         </is>
       </c>
     </row>
@@ -1015,34 +1095,39 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>14365</v>
+        <v>29863</v>
       </c>
       <c r="C17" t="n">
-        <v>184</v>
+        <v>349</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>rt kematian para dokter dan tenaga kesehatan sangat merisaukan batin saya saya tdk dpt berbuat apaapa kecuali hanya bersua</t>
+          <t>rt peresmian masjid attanwir masjid berkemajuan ramah lingkungan dan mencerahkan cc mukti</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>['rt', 'kematian', 'para', 'dokter', 'dan', 'tenaga', 'kesehatan', 'sangat', 'merisaukan', 'batin', 'saya', 'saya', 'tdk', 'dpt', 'berbuat', 'apaapa', 'kecuali', 'hanya', 'bersua']</t>
+          <t>['rt', 'peresmian', 'masjid', 'attanwir', 'masjid', 'berkemajuan', 'ramah', 'lingkungan', 'dan', 'mencerahkan', 'cc', 'mukti']</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
+          <t>['rt', 'peresmian', 'masjid', 'attanwir', 'masjid', 'berkemajuan', 'ramah', 'lingkungan', 'dan', 'mencerahkan', 'cc', 'mukti']</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>['kematian', 'dokter', 'tenaga', 'kesehatan', 'merisaukan', 'batin', 'dpt', 'berbuat', 'apaapa', 'kecuali', 'bersua']</t>
+          <t>&lt;FreqDist with 11 samples and 12 outcomes&gt;</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>['mati', 'dokter', 'tenaga', 'sehat', 'risau', 'batin', 'dpt', 'buat', 'apaapa', 'kecuali', 'sua']</t>
+          <t>['peresmian', 'masjid', 'attanwir', 'masjid', 'berkemajuan', 'ramah', 'lingkungan', 'mencerahkan', 'cc', 'mukti']</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>['resmi', 'masjid', 'attanwir', 'masjid', 'maju', 'ramah', 'lingkung', 'cerah', 'cc', 'mukti']</t>
         </is>
       </c>
     </row>
@@ -1051,34 +1136,39 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>14366</v>
+        <v>29864</v>
       </c>
       <c r="C18" t="n">
-        <v>184</v>
+        <v>349</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>rt kematian para dokter dan tenaga kesehatan sangat merisaukan batin saya saya tidak dapat berbuat apaapa kecuali hanya be</t>
+          <t>rt resonansi republika</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>['rt', 'kematian', 'para', 'dokter', 'dan', 'tenaga', 'kesehatan', 'sangat', 'merisaukan', 'batin', 'saya', 'saya', 'tidak', 'dapat', 'berbuat', 'apaapa', 'kecuali', 'hanya', 'be']</t>
+          <t>['rt', 'resonansi', 'republika']</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
+          <t>['rt', 'resonansi', 'republika']</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>['kematian', 'dokter', 'tenaga', 'kesehatan', 'merisaukan', 'batin', 'berbuat', 'apaapa', 'kecuali', 'be']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>['mati', 'dokter', 'tenaga', 'sehat', 'risau', 'batin', 'buat', 'apaapa', 'kecuali', 'be']</t>
+          <t>['resonansi', 'republika']</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>['resonansi', 'republika']</t>
         </is>
       </c>
     </row>
@@ -1087,34 +1177,39 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>14367</v>
+        <v>29865</v>
       </c>
       <c r="C19" t="n">
-        <v>184</v>
+        <v>349</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>rt pesan untuk dan sebagai tenda besar bangsa dan negara</t>
+          <t>rt anakkampung selamat milad ke prof  azra sehat sllu pikiran prof telah ikut membangun dan memajukan manusia indonesia</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>['rt', 'pesan', 'untuk', 'dan', 'sebagai', 'tenda', 'besar', 'bangsa', 'dan', 'negara']</t>
+          <t>['rt', 'anakkampung', 'selamat', 'milad', 'ke', 'prof', 'azra', 'sehat', 'sllu', 'pikiran', 'prof', 'telah', 'ikut', 'membangun', 'dan', 'memajukan', 'manusia', 'indonesia']</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 10 outcomes&gt;</t>
+          <t>['rt', 'anakkampung', 'selamat', 'milad', 'ke', 'prof', 'azra', 'sehat', 'selalu', 'pikiran', 'prof', 'telah', 'ikut', 'membangun', 'dan', 'memajukan', 'manusia', 'indonesia']</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>['pesan', 'tenda', 'bangsa', 'negara']</t>
+          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>['pesan', 'tenda', 'bangsa', 'negara']</t>
+          <t>['anakkampung', 'selamat', 'milad', 'prof', 'azra', 'sehat', 'pikiran', 'prof', 'membangun', 'memajukan', 'manusia', 'indonesia']</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>['anakkampung', 'selamat', 'milad', 'prof', 'azra', 'sehat', 'pikir', 'prof', 'bangun', 'maju', 'manusia', 'indonesia']</t>
         </is>
       </c>
     </row>
@@ -1123,34 +1218,39 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>14368</v>
+        <v>29866</v>
       </c>
       <c r="C20" t="n">
-        <v>184</v>
+        <v>349</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>rt siapa yang tidak marah jengkel bahkan frustasi melihat semakin dahsyatnya tindakan korupsi di indonesia sumpah jabatan</t>
+          <t>rt azyumardi tks maarif sy merasa sangat tersanjung dengan pesan milad sy sy tetap setia mengikut jejak langkah buya</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>['rt', 'siapa', 'yang', 'tidak', 'marah', 'jengkel', 'bahkan', 'frustasi', 'melihat', 'semakin', 'dahsyatnya', 'tindakan', 'korupsi', 'di', 'indonesia', 'sumpah', 'jabatan']</t>
+          <t>['rt', 'azyumardi', 'tks', 'maarif', 'sy', 'merasa', 'sangat', 'tersanjung', 'dengan', 'pesan', 'milad', 'sy', 'sy', 'tetap', 'setia', 'mengikut', 'jejak', 'langkah', 'buya']</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['rt', 'azyumardi', 'tks', 'maarif', 'saya', 'merasa', 'sangat', 'tersanjung', 'dengan', 'pesan', 'milad', 'saya', 'saya', 'tetap', 'setia', 'mengikuti', 'jejak', 'langkah', 'buya']</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>['marah', 'jengkel', 'frustasi', 'dahsyatnya', 'tindakan', 'korupsi', 'indonesia', 'sumpah', 'jabatan']</t>
+          <t>&lt;FreqDist with 17 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>['marah', 'jengkel', 'frustasi', 'dahsyat', 'tindak', 'korupsi', 'indonesia', 'sumpah', 'jabat']</t>
+          <t>['azyumardi', 'tks', 'maarif', 'tersanjung', 'pesan', 'milad', 'setia', 'mengikuti', 'jejak', 'langkah', 'buya']</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>['azyumardi', 'tks', 'maarif', 'sanjung', 'pesan', 'milad', 'setia', 'ikut', 'jejak', 'langkah', 'buya']</t>
         </is>
       </c>
     </row>
@@ -1159,34 +1259,39 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>14369</v>
+        <v>29867</v>
       </c>
       <c r="C21" t="n">
-        <v>184</v>
+        <v>349</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>rt sehat selalu buya doa terbaik untuk buya syafii maarif sumber video dari ig</t>
+          <t xml:space="preserve">rt mendapat apresiasi dari itu sungguh luar biasa apalagi disebut sebagai ini juga dakwah </t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>['rt', 'sehat', 'selalu', 'buya', 'doa', 'terbaik', 'untuk', 'buya', 'syafii', 'maarif', 'sumber', 'video', 'dari', 'ig']</t>
+          <t>['rt', 'mendapat', 'apresiasi', 'dari', 'itu', 'sungguh', 'luar', 'biasa', 'apalagi', 'disebut', 'sebagai', 'ini', 'juga', 'dakwah']</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
+          <t>['rt', 'mendapat', 'apresiasi', 'dari', 'itu', 'sungguh', 'luar', 'biasa', 'apalagi', 'disebut', 'sebagai', 'ini', 'juga', 'dakwah']</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>['sehat', 'buya', 'doa', 'terbaik', 'buya', 'syafii', 'maarif', 'sumber', 'video', 'ig']</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>['sehat', 'buya', 'doa', 'baik', 'buya', 'syafii', 'maarif', 'sumber', 'video', 'ig']</t>
+          <t>['apresiasi', 'sungguh', 'dakwah']</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>['apresiasi', 'sungguh', 'dakwah']</t>
         </is>
       </c>
     </row>
@@ -1195,34 +1300,39 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>14370</v>
+        <v>29868</v>
       </c>
       <c r="C22" t="n">
-        <v>184</v>
+        <v>349</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>rt museum koruptor menurut hemat saya usul itu patut dipertimbangkan karena negara nyaris kehabisan daya untuk membasmi</t>
+          <t>resonansi republika hari ini komputer tua dan para sahabat</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>['rt', 'museum', 'koruptor', 'menurut', 'hemat', 'saya', 'usul', 'itu', 'patut', 'dipertimbangkan', 'karena', 'negara', 'nyaris', 'kehabisan', 'daya', 'untuk', 'membasmi']</t>
+          <t>['resonansi', 'republika', 'hari', 'ini', 'komputer', 'tua', 'dan', 'para', 'sahabat']</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['resonansi', 'republika', 'hari', 'ini', 'komputer', 'tua', 'dan', 'para', 'sahabat']</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>['museum', 'koruptor', 'hemat', 'usul', 'patut', 'dipertimbangkan', 'negara', 'kehabisan', 'daya', 'membasmi']</t>
+          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>['museum', 'koruptor', 'hemat', 'usul', 'patut', 'timbang', 'negara', 'habis', 'daya', 'basmi']</t>
+          <t>['resonansi', 'republika', 'komputer', 'tua', 'sahabat']</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>['resonansi', 'republika', 'komputer', 'tua', 'sahabat']</t>
         </is>
       </c>
     </row>
@@ -1231,34 +1341,39 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>14371</v>
+        <v>29869</v>
       </c>
       <c r="C23" t="n">
-        <v>184</v>
+        <v>349</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>rt gelar habib dan gelar lain yg mengaku keturunan nabi atau keturunan raja hulubalangketurunan bajak laut perompa</t>
+          <t xml:space="preserve">rt inna lillahi wa inna ilaihi rajiun semoga sahabat kita dr artidjo alkostar sh mendapatkan husnul khatimah di akhir </t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>['rt', 'gelar', 'habib', 'dan', 'gelar', 'lain', 'yg', 'mengaku', 'keturunan', 'nabi', 'atau', 'keturunan', 'raja', 'hulubalangketurunan', 'bajak', 'laut', 'perompa']</t>
+          <t>['rt', 'inna', 'lillahi', 'wa', 'inna', 'ilaihi', 'rajiun', 'semoga', 'sahabat', 'kita', 'dr', 'artidjo', 'alkostar', 'sh', 'mendapatkan', 'husnul', 'khatimah', 'di', 'akhir']</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 17 outcomes&gt;</t>
+          <t>['rt', 'inna', 'lillahi', 'wa', 'inna', 'ilaihi', 'rajiun', 'semoga', 'sahabat', 'kita', 'dari', 'artidjo', 'alkostar', 'sh', 'mendapatkan', 'husnul', 'khatimah', 'di', 'akhir']</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>['gelar', 'habib', 'gelar', 'mengaku', 'keturunan', 'nabi', 'keturunan', 'raja', 'hulubalangketurunan', 'bajak', 'laut', 'perompa']</t>
+          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>['gelar', 'habib', 'gelar', 'aku', 'turun', 'nabi', 'turun', 'raja', 'hulubalangketurunan', 'bajak', 'laut', 'perompa']</t>
+          <t>['inna', 'lillahi', 'wa', 'inna', 'ilaihi', 'rajiun', 'semoga', 'sahabat', 'artidjo', 'alkostar', 'sh', 'husnul', 'khatimah']</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>['inna', 'lillahi', 'wa', 'inna', 'ilaihi', 'rajiun', 'moga', 'sahabat', 'artidjo', 'alkostar', 'sh', 'husnul', 'khatimah']</t>
         </is>
       </c>
     </row>
@@ -1267,34 +1382,39 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>14372</v>
+        <v>29870</v>
       </c>
       <c r="C24" t="n">
-        <v>184</v>
+        <v>349</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>rt saya pesankan kepada mereka dalam berdakwah agar merangkul semua golongan dengan memakai bahasa otak dan bahasa hati</t>
+          <t>rt azyumardi alm dulu selama bln sama di kampus columbia law school</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>['rt', 'saya', 'pesankan', 'kepada', 'mereka', 'dalam', 'berdakwah', 'agar', 'merangkul', 'semua', 'golongan', 'dengan', 'memakai', 'bahasa', 'otak', 'dan', 'bahasa', 'hati']</t>
+          <t>['rt', 'azyumardi', 'alm', 'dulu', 'selama', 'bln', 'sama', 'di', 'kampus', 'columbia', 'law', 'school']</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
+          <t>['rt', 'azyumardi', 'almarhum', 'dulu', 'selama', 'bulan', 'sama', 'di', 'kampus', 'columbia', 'law', 'school']</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>['pesankan', 'berdakwah', 'merangkul', 'golongan', 'memakai', 'bahasa', 'otak', 'bahasa', 'hati']</t>
+          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>['pesan', 'dakwah', 'rangkul', 'golong', 'pakai', 'bahasa', 'otak', 'bahasa', 'hati']</t>
+          <t>['azyumardi', 'almarhum', 'kampus', 'columbia', 'law', 'school']</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>['azyumardi', 'almarhum', 'kampus', 'columbia', 'law', 'school']</t>
         </is>
       </c>
     </row>
@@ -1303,34 +1423,39 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>14373</v>
+        <v>29871</v>
       </c>
       <c r="C25" t="n">
-        <v>184</v>
+        <v>349</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>mengiris rasa kemanusiaan dan rasionalitas kita saya mendoakan untuk kesembuhan dan keselamatan syeh ali jaber po</t>
+          <t>rt republik sapi perah oleh feb  aduh mak semakin dibongkar semakin melelahkan</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>['mengiris', 'rasa', 'kemanusiaan', 'dan', 'rasionalitas', 'kita', 'saya', 'mendoakan', 'untuk', 'kesembuhan', 'dan', 'keselamatan', 'syeh', 'ali', 'jaber', 'po']</t>
+          <t>['rt', 'republik', 'sapi', 'perah', 'oleh', 'feb', 'aduh', 'mak', 'semakin', 'dibongkar', 'semakin', 'melelahkan']</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
+          <t>['rt', 'republik', 'sapi', 'perah', 'oleh', 'februari', 'aduh', 'mak', 'semakin', 'dibongkar', 'semakin', 'melelahkan']</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>['mengiris', 'kemanusiaan', 'rasionalitas', 'mendoakan', 'kesembuhan', 'keselamatan', 'syeh', 'ali', 'jaber', 'po']</t>
+          <t>&lt;FreqDist with 11 samples and 12 outcomes&gt;</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>['kir', 'manusia', 'rasionalitas', 'doa', 'sembuh', 'selamat', 'syeh', 'ali', 'jaber', 'po']</t>
+          <t>['republik', 'sapi', 'perah', 'februari', 'aduh', 'mak', 'dibongkar', 'melelahkan']</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>['republik', 'sapi', 'perah', 'februari', 'aduh', 'mak', 'bongkar', 'lelah']</t>
         </is>
       </c>
     </row>
@@ -1339,34 +1464,39 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>14374</v>
+        <v>29872</v>
       </c>
       <c r="C26" t="n">
-        <v>184</v>
+        <v>349</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>rt baik pak jakob oetama maupun pak malik fadjar keduanya telah beramal jariyah di bidang masing kita warisi semangat da</t>
+          <t xml:space="preserve">rt simak yg sekarang menjadi pasien mengucapkan ulang tahun utk rspku gamping sehat selalu buya </t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>['rt', 'baik', 'pak', 'jakob', 'oetama', 'maupun', 'pak', 'malik', 'fadjar', 'keduanya', 'telah', 'beramal', 'jariyah', 'di', 'bidang', 'masing', 'kita', 'warisi', 'semangat', 'da']</t>
+          <t>['rt', 'simak', 'yg', 'sekarang', 'menjadi', 'pasien', 'mengucapkan', 'ulang', 'tahun', 'utk', 'rspku', 'gamping', 'sehat', 'selalu', 'buya']</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 20 outcomes&gt;</t>
+          <t>['rt', 'simak', 'yang', 'sekarang', 'menjadi', 'pasien', 'mengucapkan', 'ulang', 'tahun', 'untuk', 'rspku', 'gamping', 'sehat', 'selalu', 'buya']</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>['jakob', 'oetama', 'malik', 'fadjar', 'beramal', 'jariyah', 'bidang', 'warisi', 'semangat', 'da']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>['jakob', 'oetama', 'malik', 'fadjar', 'amal', 'jariyah', 'bidang', 'waris', 'semangat', 'da']</t>
+          <t>['simak', 'pasien', 'ulang', 'rspku', 'gamping', 'sehat', 'buya']</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>['simak', 'pasien', 'ulang', 'rspku', 'gamping', 'sehat', 'buya']</t>
         </is>
       </c>
     </row>
@@ -1375,34 +1505,39 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>14375</v>
+        <v>29873</v>
       </c>
       <c r="C27" t="n">
-        <v>184</v>
+        <v>349</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t xml:space="preserve">rt yml presiden republik indonesia sebagai salah seorang yang tertua di negeri ini batin saya menjerit dan </t>
+          <t>rt lipi dapat kiriman buku mencari negarawan tahun buya ahmad syafii maarif dg pengantar buya amp penutup buya</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>['rt', 'yml', 'presiden', 'republik', 'indonesia', 'sebagai', 'salah', 'seorang', 'yang', 'tertua', 'di', 'negeri', 'ini', 'batin', 'saya', 'menjerit', 'dan']</t>
+          <t>['rt', 'lipi', 'dapat', 'kiriman', 'buku', 'mencari', 'negarawan', 'tahun', 'buya', 'ahmad', 'syafii', 'maarif', 'dg', 'pengantar', 'buya', 'amp', 'penutup', 'buya']</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['rt', 'lembaga, ilmu, pengetahuan, indonesia', 'dapat', 'kiriman', 'buku', 'mencari', 'negarawan', 'tahun', 'buya', 'ahmad', 'syafii', 'maarif', 'dengan', 'pengantar', 'buya', 'amp', 'penutup', 'buya']</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>['yml', 'presiden', 'republik', 'indonesia', 'salah', 'tertua', 'negeri', 'batin', 'menjerit']</t>
+          <t>&lt;FreqDist with 16 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>['yml', 'presiden', 'republik', 'indonesia', 'salah', 'tua', 'negeri', 'batin', 'jerit']</t>
+          <t>['lembaga, ilmu, pengetahuan, indonesia', 'kiriman', 'buku', 'mencari', 'negarawan', 'buya', 'ahmad', 'syafii', 'maarif', 'pengantar', 'buya', 'penutup', 'buya']</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>['lembaga ilmu tahu indonesia', 'kirim', 'buku', 'cari', 'negarawan', 'buya', 'ahmad', 'syafii', 'maarif', 'antar', 'buya', 'tutup', 'buya']</t>
         </is>
       </c>
     </row>
@@ -1411,34 +1546,39 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>14376</v>
+        <v>29874</v>
       </c>
       <c r="C28" t="n">
-        <v>184</v>
+        <v>349</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>rt duka buya ahmad syafii maarif terhadap tenaga kesehatan</t>
+          <t>rt mukti belajar kearifan dari buya maarif silakan order di sini</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>['rt', 'duka', 'buya', 'ahmad', 'syafii', 'maarif', 'terhadap', 'tenaga', 'kesehatan']</t>
+          <t>['rt', 'mukti', 'belajar', 'kearifan', 'dari', 'buya', 'maarif', 'silakan', 'order', 'di', 'sini']</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
+          <t>['rt', 'mukti', 'belajar', 'kearifan', 'dari', 'buya', 'maarif', 'silakan', 'order', 'di', 'sini']</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>['duka', 'buya', 'ahmad', 'syafii', 'maarif', 'tenaga', 'kesehatan']</t>
+          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>['duka', 'buya', 'ahmad', 'syafii', 'maarif', 'tenaga', 'sehat']</t>
+          <t>['mukti', 'belajar', 'kearifan', 'buya', 'maarif', 'silakan', 'order']</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>['mukti', 'ajar', 'arif', 'buya', 'maarif', 'sila', 'order']</t>
         </is>
       </c>
     </row>
@@ -1447,34 +1587,39 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>14377</v>
+        <v>29875</v>
       </c>
       <c r="C29" t="n">
-        <v>184</v>
+        <v>349</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>rt haedar jacob oetama is  visionary national figure</t>
+          <t>rt zacky khairul umam kandidat doktor dari freie universitaet berlin wakil kepala abdurrahman wahid center for peace and hu</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>['rt', 'haedar', 'jacob', 'oetama', 'is', 'visionary', 'national', 'figure']</t>
+          <t>['rt', 'zacky', 'khairul', 'umam', 'kandidat', 'doktor', 'dari', 'freie', 'universitaet', 'berlin', 'wakil', 'kepala', 'abdurrahman', 'wahid', 'center', 'for', 'peace', 'and', 'hu']</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['rt', 'zacky', 'khairul', 'umam', 'kandidat', 'doktor', 'dari', 'freie', 'universitaet', 'berlin', 'wakil', 'kepala', 'abdurrahman', 'wahid', 'center', 'for', 'peace', 'and', 'hu']</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>['haedar', 'jacob', 'oetama', 'is', 'visionary', 'national', 'figure']</t>
+          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>['haedar', 'jacob', 'oetama', 'is', 'visionary', 'national', 'figure']</t>
+          <t>['zacky', 'khairul', 'umam', 'kandidat', 'doktor', 'freie', 'universitaet', 'berlin', 'wakil', 'kepala', 'abdurrahman', 'wahid', 'center', 'for', 'peace', 'and', 'hu']</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>['zacky', 'khairul', 'umam', 'kandidat', 'doktor', 'freie', 'universitaet', 'lin', 'wakil', 'kepala', 'abdurrahman', 'wahid', 'center', 'for', 'peace', 'and', 'hu']</t>
         </is>
       </c>
     </row>
@@ -1483,34 +1628,39 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>14378</v>
+        <v>29876</v>
       </c>
       <c r="C30" t="n">
-        <v>184</v>
+        <v>349</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t xml:space="preserve">rt jakob oetama dan mallik fadjar telah mewarisi kearifan dan keteladanan sebagai cendekiawan bangsa tak lengkap bila isi </t>
+          <t>tidak ada paksaan untuk beragama</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>['rt', 'jakob', 'oetama', 'dan', 'mallik', 'fadjar', 'telah', 'mewarisi', 'kearifan', 'dan', 'keteladanan', 'sebagai', 'cendekiawan', 'bangsa', 'tak', 'lengkap', 'bila', 'isi']</t>
+          <t>['tidak', 'ada', 'paksaan', 'untuk', 'beragama']</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
+          <t>['tidak', 'ada', 'paksaan', 'untuk', 'beragama']</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>['jakob', 'oetama', 'mallik', 'fadjar', 'mewarisi', 'kearifan', 'keteladanan', 'cendekiawan', 'bangsa', 'lengkap', 'isi']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>['jakob', 'oetama', 'mallik', 'fadjar', 'waris', 'arif', 'teladan', 'cendekiawan', 'bangsa', 'lengkap', 'isi']</t>
+          <t>['paksaan', 'beragama']</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>['paksa', 'agama']</t>
         </is>
       </c>
     </row>
@@ -1519,34 +1669,39 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>14379</v>
+        <v>29877</v>
       </c>
       <c r="C31" t="n">
-        <v>184</v>
+        <v>349</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>rt surat buya syafii maarif untuk presiden jokowi</t>
+          <t>rt pikiran baik harus disebarluaskan tulisan pak di hari ini bravo</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>['rt', 'surat', 'buya', 'syafii', 'maarif', 'untuk', 'presiden', 'jokowi']</t>
+          <t>['rt', 'pikiran', 'baik', 'harus', 'disebarluaskan', 'tulisan', 'pak', 'di', 'hari', 'ini', 'bravo']</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['rt', 'pikiran', 'baik', 'harus', 'disebarluaskan', 'tulisan', 'pak', 'di', 'hari', 'ini', 'bravo']</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>['surat', 'buya', 'syafii', 'maarif', 'presiden', 'jokowi']</t>
+          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>['surat', 'buya', 'syafii', 'maarif', 'presiden', 'jokowi']</t>
+          <t>['pikiran', 'disebarluaskan', 'tulisan', 'bravo']</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>['pikir', 'disebarluaskan', 'tulis', 'bravo']</t>
         </is>
       </c>
     </row>
@@ -1555,34 +1710,39 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>14380</v>
+        <v>29878</v>
       </c>
       <c r="C32" t="n">
-        <v>184</v>
+        <v>349</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>rt pimpinan pusat muhammadiyah menyampaikan belasungkawa yang mendalam atas meninggalnya bapak jacob oetama pendiri kompas grame</t>
+          <t>rt tulisan di hari ini foto koran dari mas</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>['rt', 'pimpinan', 'pusat', 'muhammadiyah', 'menyampaikan', 'belasungkawa', 'yang', 'mendalam', 'atas', 'meninggalnya', 'bapak', 'jacob', 'oetama', 'pendiri', 'kompas', 'grame']</t>
+          <t>['rt', 'tulisan', 'di', 'hari', 'ini', 'foto', 'koran', 'dari', 'mas']</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['rt', 'tulisan', 'di', 'hari', 'ini', 'foto', 'koran', 'dari', 'mas']</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>['pimpinan', 'pusat', 'muhammadiyah', 'belasungkawa', 'mendalam', 'meninggalnya', 'jacob', 'oetama', 'pendiri', 'kompas', 'grame']</t>
+          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>['pimpin', 'pusat', 'muhammadiyah', 'belasungkawa', 'dalam', 'tinggal', 'jacob', 'oetama', 'diri', 'kompas', 'grame']</t>
+          <t>['tulisan', 'foto', 'koran', 'mas']</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>['tulis', 'foto', 'koran', 'mas']</t>
         </is>
       </c>
     </row>
@@ -1591,34 +1751,39 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>14381</v>
+        <v>29879</v>
       </c>
       <c r="C33" t="n">
-        <v>184</v>
+        <v>349</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>rt wartawan dari dll tabayyun apakah ini benar dari buya</t>
+          <t>rt yang busuk dengan mudah saja dikemas dalam bungkus harum sehingga kepalsuan seperti telah jadi norma https</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>['rt', 'wartawan', 'dari', 'dll', 'tabayyun', 'apakah', 'ini', 'benar', 'dari', 'buya']</t>
+          <t>['rt', 'yang', 'busuk', 'dengan', 'mudah', 'saja', 'dikemas', 'dalam', 'bungkus', 'harum', 'sehingga', 'kepalsuan', 'seperti', 'telah', 'jadi', 'norma', 'https']</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 10 outcomes&gt;</t>
+          <t>['rt', 'yang', 'busuk', 'dengan', 'mudah', 'saja', 'dikemas', 'dalam', 'bungkus', 'harum', 'sehingga', 'kepalsuan', 'seperti', 'telah', 'jadi', 'norma', 'hypertext, transfer, protocol, over, secure, socket, layer']</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>['wartawan', 'dll', 'tabayyun', 'buya']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>['wartawan', 'dll', 'tabayyun', 'buya']</t>
+          <t>['busuk', 'mudah', 'dikemas', 'bungkus', 'harum', 'kepalsuan', 'norma', 'hypertext, transfer, protocol, over, secure, socket, layer']</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>['busuk', 'mudah', 'kemas', 'bungkus', 'harum', 'palsu', 'norma', 'hypertext transfer protocol over secure socket layer']</t>
         </is>
       </c>
     </row>
@@ -1627,34 +1792,39 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>14382</v>
+        <v>29880</v>
       </c>
       <c r="C34" t="n">
-        <v>184</v>
+        <v>349</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>rt catatan soal sejarah politik santri as</t>
+          <t>rt muhammadiyah rumah besar toleransi adalah sebuah citacita besar yang menjadi idealisme begitulah kata mey</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>['rt', 'catatan', 'soal', 'sejarah', 'politik', 'santri', 'as']</t>
+          <t>['rt', 'muhammadiyah', 'rumah', 'besar', 'toleransi', 'adalah', 'sebuah', 'citacita', 'besar', 'yang', 'menjadi', 'idealisme', 'begitulah', 'kata', 'mey']</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['rt', 'muhammadiyah', 'rumah', 'besar', 'toleransi', 'adalah', 'sebuah', 'citacita', 'besar', 'yang', 'menjadi', 'idealisme', 'begitulah', 'kata', 'mei']</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>['catatan', 'sejarah', 'politik', 'santri', 'as']</t>
+          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>['catat', 'sejarah', 'politik', 'santri', 'as']</t>
+          <t>['muhammadiyah', 'rumah', 'toleransi', 'citacita', 'idealisme', 'mei']</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>['muhammadiyah', 'rumah', 'toleransi', 'citacita', 'idealisme', 'mei']</t>
         </is>
       </c>
     </row>
@@ -1663,34 +1833,39 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>14383</v>
+        <v>29881</v>
       </c>
       <c r="C35" t="n">
-        <v>184</v>
+        <v>349</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>rt sehat sehat dan panjang umur buya</t>
+          <t>rt ngaji bareng buya lewat republika hari ini</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>['rt', 'sehat', 'sehat', 'dan', 'panjang', 'umur', 'buya']</t>
+          <t>['rt', 'ngaji', 'bareng', 'buya', 'lewat', 'republika', 'hari', 'ini']</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 7 outcomes&gt;</t>
+          <t>['rt', 'mengaji', 'bareng', 'buya', 'lewat', 'republika', 'hari', 'ini']</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>['sehat', 'sehat', 'umur', 'buya']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>['sehat', 'sehat', 'umur', 'buya']</t>
+          <t>['mengaji', 'bareng', 'buya', 'republika']</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>['aji', 'bareng', 'buya', 'republika']</t>
         </is>
       </c>
     </row>
@@ -1699,34 +1874,39 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>14384</v>
+        <v>29882</v>
       </c>
       <c r="C36" t="n">
-        <v>184</v>
+        <v>349</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>rt smoga slalu dalam lindungan allah swt  bapak</t>
+          <t>rt tulisan di kompas hari ini patut disimak menurut buya muhammadiyahnu adalah benteng utama utk membendun</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>['rt', 'smoga', 'slalu', 'dalam', 'lindungan', 'allah', 'swt', 'bapak']</t>
+          <t>['rt', 'tulisan', 'di', 'kompas', 'hari', 'ini', 'patut', 'disimak', 'menurut', 'buya', 'muhammadiyahnu', 'adalah', 'benteng', 'utama', 'utk', 'membendun']</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['rt', 'tulisan', 'di', 'kompas', 'hari', 'ini', 'patut', 'disimak', 'menurut', 'buya', 'muhammadiyahnu', 'adalah', 'benteng', 'utama', 'untuk', 'membendun']</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>['smoga', 'slalu', 'lindungan', 'allah', 'swt']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>['smoga', 'slalu', 'lindung', 'allah', 'swt']</t>
+          <t>['tulisan', 'kompas', 'patut', 'disimak', 'buya', 'muhammadiyahnu', 'benteng', 'utama', 'membendun']</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>['tulis', 'kompas', 'patut', 'simak', 'buya', 'muhammadiyahnu', 'benteng', 'utama', 'membendun']</t>
         </is>
       </c>
     </row>
@@ -1735,34 +1915,39 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>14385</v>
+        <v>29883</v>
       </c>
       <c r="C37" t="n">
-        <v>184</v>
+        <v>349</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>rt tahniah tahun buya ahmad syafii maarif geotimes</t>
+          <t>rt khoirudin pesan untuk dan dan harus berpikir besar</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>['rt', 'tahniah', 'tahun', 'buya', 'ahmad', 'syafii', 'maarif', 'geotimes']</t>
+          <t>['rt', 'khoirudin', 'pesan', 'untuk', 'dan', 'dan', 'harus', 'berpikir', 'besar']</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['rt', 'khoirudin', 'pesan', 'untuk', 'dan', 'dan', 'harus', 'berpikir', 'besar']</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>['tahniah', 'buya', 'ahmad', 'syafii', 'maarif', 'geotimes']</t>
+          <t>&lt;FreqDist with 8 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>['tahniah', 'buya', 'ahmad', 'syafii', 'maarif', 'geotimes']</t>
+          <t>['khoirudin', 'pesan', 'berpikir']</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>['khoirudin', 'pesan', 'pikir']</t>
         </is>
       </c>
     </row>
@@ -1771,34 +1956,39 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>14386</v>
+        <v>29884</v>
       </c>
       <c r="C38" t="n">
-        <v>184</v>
+        <v>349</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>rt tentang buya tulisan mas muslim puritan pembela pancasila semoga beliau sehat selalu amiin</t>
+          <t>rt buya asm selalu menjadi oase sekaligus kompas buat bangsa ini menatap kedepan dengan lebih baik terima kasih selalu menj</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>['rt', 'tentang', 'buya', 'tulisan', 'mas', 'muslim', 'puritan', 'pembela', 'pancasila', 'semoga', 'beliau', 'sehat', 'selalu', 'amiin']</t>
+          <t>['rt', 'buya', 'asm', 'selalu', 'menjadi', 'oase', 'sekaligus', 'kompas', 'buat', 'bangsa', 'ini', 'menatap', 'kedepan', 'dengan', 'lebih', 'baik', 'terima', 'kasih', 'selalu', 'menj']</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>['rt', 'buya', 'asm', 'selalu', 'menjadi', 'oase', 'sekaligus', 'kompas', 'buat', 'bangsa', 'ini', 'menatap', 'ke, depan', 'dengan', 'lebih', 'baik', 'terima', 'kasih', 'selalu', 'menj']</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>['buya', 'tulisan', 'mas', 'muslim', 'puritan', 'pembela', 'pancasila', 'semoga', 'beliau', 'sehat', 'amiin']</t>
+          <t>&lt;FreqDist with 19 samples and 20 outcomes&gt;</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>['buya', 'tulis', 'mas', 'muslim', 'puritan', 'bela', 'pancasila', 'moga', 'beliau', 'sehat', 'amiin']</t>
+          <t>['buya', 'asm', 'oase', 'kompas', 'bangsa', 'menatap', 'ke, depan', 'terima', 'kasih', 'menj']</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>['buya', 'asm', 'oase', 'kompas', 'bangsa', 'tatap', 'ke depan', 'terima', 'kasih', 'menj']</t>
         </is>
       </c>
     </row>
@@ -1807,34 +1997,39 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>14387</v>
+        <v>29885</v>
       </c>
       <c r="C39" t="n">
-        <v>184</v>
+        <v>349</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>rt semoga selalu dilimpahi kesehatan buya</t>
+          <t>rt ri muhammadiyah dan nu mesti bergandengan tangan untuk menjaga keutuhan indonesia pesan di</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>['rt', 'semoga', 'selalu', 'dilimpahi', 'kesehatan', 'buya']</t>
+          <t>['rt', 'ri', 'muhammadiyah', 'dan', 'nu', 'mesti', 'bergandengan', 'tangan', 'untuk', 'menjaga', 'keutuhan', 'indonesia', 'pesan', 'di']</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['rt', 'ri', 'muhammadiyah', 'dan', 'nu', 'mesti', 'bergandengan', 'tangan', 'untuk', 'menjaga', 'keutuhan', 'indonesia', 'pesan', 'di']</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>['semoga', 'dilimpahi', 'kesehatan', 'buya']</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>['moga', 'limpah', 'sehat', 'buya']</t>
+          <t>['ri', 'muhammadiyah', 'nu', 'mesti', 'bergandengan', 'tangan', 'menjaga', 'keutuhan', 'indonesia', 'pesan']</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>['ri', 'muhammadiyah', 'nu', 'mesti', 'gandeng', 'tangan', 'jaga', 'utuh', 'indonesia', 'pesan']</t>
         </is>
       </c>
     </row>
@@ -1843,34 +2038,39 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>14388</v>
+        <v>29886</v>
       </c>
       <c r="C40" t="n">
-        <v>184</v>
+        <v>349</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>rt sehat selalu buya semoga dalam lindungan allah swt selalu aamiin</t>
+          <t>rt faishalz ini nih bagi temen temen yang mau tau tulisan se</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>['rt', 'sehat', 'selalu', 'buya', 'semoga', 'dalam', 'lindungan', 'allah', 'swt', 'selalu', 'aamiin']</t>
+          <t>['rt', 'faishalz', 'ini', 'nih', 'bagi', 'temen', 'temen', 'yang', 'mau', 'tau', 'tulisan', 'se']</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 11 outcomes&gt;</t>
+          <t>['rt', 'faishalz', 'ini', 'nih', 'bagi', 'teman', 'teman', 'yang', 'mau', 'tau', 'tulisan', 'se']</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>['sehat', 'buya', 'semoga', 'lindungan', 'allah', 'swt', 'aamiin']</t>
+          <t>&lt;FreqDist with 11 samples and 12 outcomes&gt;</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>['sehat', 'buya', 'moga', 'lindung', 'allah', 'swt', 'aamiin']</t>
+          <t>['faishalz', 'teman', 'teman', 'tulisan']</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>['faishalz', 'teman', 'teman', 'tulis']</t>
         </is>
       </c>
     </row>
@@ -1879,34 +2079,39 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>14389</v>
+        <v>29887</v>
       </c>
       <c r="C41" t="n">
-        <v>184</v>
+        <v>349</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>rt btp selamat ulang tahun buya syafii maarif semoga selalu diberikan kesehatan keberkahan panjang umur dan senan</t>
+          <t>rt kematian para dokter dan tenaga kesehatan sangat merisaukan batin saya saya tdk dpt berbuat apaapa kecuali hanya bersua</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>['rt', 'btp', 'selamat', 'ulang', 'tahun', 'buya', 'syafii', 'maarif', 'semoga', 'selalu', 'diberikan', 'kesehatan', 'keberkahan', 'panjang', 'umur', 'dan', 'senan']</t>
+          <t>['rt', 'kematian', 'para', 'dokter', 'dan', 'tenaga', 'kesehatan', 'sangat', 'merisaukan', 'batin', 'saya', 'saya', 'tdk', 'dpt', 'berbuat', 'apaapa', 'kecuali', 'hanya', 'bersua']</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['rt', 'kematian', 'para', 'dokter', 'dan', 'tenaga', 'kesehatan', 'sangat', 'merisaukan', 'batin', 'saya', 'saya', 'tidak', 'dapat', 'berbuat', 'apaapa', 'kecuali', 'hanya', 'bersua']</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>['btp', 'selamat', 'ulang', 'buya', 'syafii', 'maarif', 'semoga', 'kesehatan', 'keberkahan', 'umur', 'senan']</t>
+          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>['btp', 'selamat', 'ulang', 'buya', 'syafii', 'maarif', 'moga', 'sehat', 'berkah', 'umur', 'sen']</t>
+          <t>['kematian', 'dokter', 'tenaga', 'kesehatan', 'merisaukan', 'batin', 'berbuat', 'apaapa', 'kecuali', 'bersua']</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>['mati', 'dokter', 'tenaga', 'sehat', 'risau', 'batin', 'buat', 'apaapa', 'kecuali', 'sua']</t>
         </is>
       </c>
     </row>
@@ -1915,34 +2120,39 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>14390</v>
+        <v>29888</v>
       </c>
       <c r="C42" t="n">
-        <v>184</v>
+        <v>349</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>saya ikuti seluruhnya tp sy tidaklah sehebat seperti yg dibayangkan saya merasa terlalu banyak umur saya yg tersi</t>
+          <t>rt kematian para dokter dan tenaga kesehatan sangat merisaukan batin saya saya tidak dapat berbuat apaapa kecuali hanya be</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>['saya', 'ikuti', 'seluruhnya', 'tp', 'sy', 'tidaklah', 'sehebat', 'seperti', 'yg', 'dibayangkan', 'saya', 'merasa', 'terlalu', 'banyak', 'umur', 'saya', 'yg', 'tersi']</t>
+          <t>['rt', 'kematian', 'para', 'dokter', 'dan', 'tenaga', 'kesehatan', 'sangat', 'merisaukan', 'batin', 'saya', 'saya', 'tidak', 'dapat', 'berbuat', 'apaapa', 'kecuali', 'hanya', 'be']</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 18 outcomes&gt;</t>
+          <t>['rt', 'kematian', 'para', 'dokter', 'dan', 'tenaga', 'kesehatan', 'sangat', 'merisaukan', 'batin', 'saya', 'saya', 'tidak', 'dapat', 'berbuat', 'apaapa', 'kecuali', 'hanya', 'be']</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>['ikuti', 'tp', 'sy', 'sehebat', 'dibayangkan', 'umur', 'tersi']</t>
+          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>['ikut', 'tp', 'sy', 'hebat', 'bayang', 'umur', 'tersi']</t>
+          <t>['kematian', 'dokter', 'tenaga', 'kesehatan', 'merisaukan', 'batin', 'berbuat', 'apaapa', 'kecuali', 'be']</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>['mati', 'dokter', 'tenaga', 'sehat', 'risau', 'batin', 'buat', 'apaapa', 'kecuali', 'be']</t>
         </is>
       </c>
     </row>
@@ -1951,34 +2161,39 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>14391</v>
+        <v>29889</v>
       </c>
       <c r="C43" t="n">
-        <v>184</v>
+        <v>349</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>racun perpecahan itu telah ditebar dari dulu resonansi mei</t>
+          <t>rt pesan untuk dan sebagai tenda besar bangsa dan negara</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>['racun', 'perpecahan', 'itu', 'telah', 'ditebar', 'dari', 'dulu', 'resonansi', 'mei']</t>
+          <t>['rt', 'pesan', 'untuk', 'dan', 'sebagai', 'tenda', 'besar', 'bangsa', 'dan', 'negara']</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
+          <t>['rt', 'pesan', 'untuk', 'dan', 'sebagai', 'tenda', 'besar', 'bangsa', 'dan', 'negara']</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>['racun', 'perpecahan', 'ditebar', 'resonansi', 'mei']</t>
+          <t>&lt;FreqDist with 9 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>['racun', 'pecah', 'tebar', 'resonansi', 'mei']</t>
+          <t>['pesan', 'tenda', 'bangsa', 'negara']</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>['pesan', 'tenda', 'bangsa', 'negara']</t>
         </is>
       </c>
     </row>
@@ -1987,34 +2202,39 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>14392</v>
+        <v>29890</v>
       </c>
       <c r="C44" t="n">
-        <v>184</v>
+        <v>349</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>rt benarkah dunia islam ringkih silakan simak pemikiran buya syafii maarif tentang dunia islam yang ringkih</t>
+          <t>rt siapa yang tidak marah jengkel bahkan frustasi melihat semakin dahsyatnya tindakan korupsi di indonesia sumpah jabatan</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>['rt', 'benarkah', 'dunia', 'islam', 'ringkih', 'silakan', 'simak', 'pemikiran', 'buya', 'syafii', 'maarif', 'tentang', 'dunia', 'islam', 'yang', 'ringkih']</t>
+          <t>['rt', 'siapa', 'yang', 'tidak', 'marah', 'jengkel', 'bahkan', 'frustasi', 'melihat', 'semakin', 'dahsyatnya', 'tindakan', 'korupsi', 'di', 'indonesia', 'sumpah', 'jabatan']</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 16 outcomes&gt;</t>
+          <t>['rt', 'siapa', 'yang', 'tidak', 'marah', 'jengkel', 'bahkan', 'frustasi', 'melihat', 'semakin', 'dahsyatnya', 'tindakan', 'korupsi', 'di', 'indonesia', 'sumpah', 'jabatan']</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>['dunia', 'islam', 'ringkih', 'silakan', 'simak', 'pemikiran', 'buya', 'syafii', 'maarif', 'dunia', 'islam', 'ringkih']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>['dunia', 'islam', 'ringkih', 'sila', 'simak', 'pikir', 'buya', 'syafii', 'maarif', 'dunia', 'islam', 'ringkih']</t>
+          <t>['marah', 'jengkel', 'frustasi', 'dahsyatnya', 'tindakan', 'korupsi', 'indonesia', 'sumpah', 'jabatan']</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>['marah', 'jengkel', 'frustasi', 'dahsyat', 'tindak', 'korupsi', 'indonesia', 'sumpah', 'jabat']</t>
         </is>
       </c>
     </row>
@@ -2023,34 +2243,39 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>14393</v>
+        <v>29891</v>
       </c>
       <c r="C45" t="n">
-        <v>184</v>
+        <v>349</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>rt turut berduka cita yg mendalam atas wafatnya bapak ae priyono semoga almarhum mendapatkan tempat terbaik di sisi tuha</t>
+          <t>rt sehat selalu buya doa terbaik untuk buya syafii maarif sumber video dari ig</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>['rt', 'turut', 'berduka', 'cita', 'yg', 'mendalam', 'atas', 'wafatnya', 'bapak', 'ae', 'priyono', 'semoga', 'almarhum', 'mendapatkan', 'tempat', 'terbaik', 'di', 'sisi', 'tuha']</t>
+          <t>['rt', 'sehat', 'selalu', 'buya', 'doa', 'terbaik', 'untuk', 'buya', 'syafii', 'maarif', 'sumber', 'video', 'dari', 'ig']</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
+          <t>['rt', 'sehat', 'selalu', 'buya', 'doa', 'terbaik', 'untuk', 'buya', 'syafii', 'maarif', 'sumber', 'video', 'dari', 'instagram']</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>['berduka', 'cita', 'mendalam', 'wafatnya', 'ae', 'priyono', 'semoga', 'almarhum', 'terbaik', 'sisi', 'tuha']</t>
+          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>['duka', 'cita', 'dalam', 'wafat', 'ae', 'priyono', 'moga', 'almarhum', 'baik', 'sisi', 'tuha']</t>
+          <t>['sehat', 'buya', 'doa', 'terbaik', 'buya', 'syafii', 'maarif', 'sumber', 'video', 'instagram']</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>['sehat', 'buya', 'doa', 'baik', 'buya', 'syafii', 'maarif', 'sumber', 'video', 'instagram']</t>
         </is>
       </c>
     </row>
@@ -2059,34 +2284,39 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>14394</v>
+        <v>29892</v>
       </c>
       <c r="C46" t="n">
-        <v>184</v>
+        <v>349</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>rt artikel peneliti senior seri ke tentang compatibility between islam and democracy</t>
+          <t>rt museum koruptor menurut hemat saya usul itu patut dipertimbangkan karena negara nyaris kehabisan daya untuk membasmi</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>['rt', 'artikel', 'peneliti', 'senior', 'seri', 'ke', 'tentang', 'compatibility', 'between', 'islam', 'and', 'democracy']</t>
+          <t>['rt', 'museum', 'koruptor', 'menurut', 'hemat', 'saya', 'usul', 'itu', 'patut', 'dipertimbangkan', 'karena', 'negara', 'nyaris', 'kehabisan', 'daya', 'untuk', 'membasmi']</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
+          <t>['rt', 'museum', 'koruptor', 'menurut', 'hemat', 'saya', 'usul', 'itu', 'patut', 'dipertimbangkan', 'karena', 'negara', 'nyaris', 'kehabisan', 'daya', 'untuk', 'membasmi']</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>['artikel', 'peneliti', 'senior', 'seri', 'compatibility', 'between', 'islam', 'and', 'democracy']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>['artikel', 'teliti', 'senior', 'seri', 'compatibility', 'between', 'islam', 'and', 'democracy']</t>
+          <t>['museum', 'koruptor', 'hemat', 'usul', 'patut', 'dipertimbangkan', 'negara', 'kehabisan', 'daya', 'membasmi']</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>['museum', 'koruptor', 'hemat', 'usul', 'patut', 'timbang', 'negara', 'habis', 'daya', 'basmi']</t>
         </is>
       </c>
     </row>
@@ -2095,34 +2325,39 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>14395</v>
+        <v>29893</v>
       </c>
       <c r="C47" t="n">
-        <v>184</v>
+        <v>349</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>rt terima kasih buya syafii</t>
+          <t>rt gelar habib dan gelar lain yg mengaku keturunan nabi atau keturunan raja hulubalangketurunan bajak laut perompa</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>['rt', 'terima', 'kasih', 'buya', 'syafii']</t>
+          <t>['rt', 'gelar', 'habib', 'dan', 'gelar', 'lain', 'yg', 'mengaku', 'keturunan', 'nabi', 'atau', 'keturunan', 'raja', 'hulubalangketurunan', 'bajak', 'laut', 'perompa']</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['rt', 'gelar', 'habib', 'dan', 'gelar', 'lain', 'yang', 'mengaku', 'keturunan', 'nabi', 'atau', 'keturunan', 'raja', 'hulubalangketurunan', 'bajak', 'laut', 'perompa']</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>['terima', 'kasih', 'buya', 'syafii']</t>
+          <t>&lt;FreqDist with 15 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>['terima', 'kasih', 'buya', 'syafii']</t>
+          <t>['gelar', 'habib', 'gelar', 'mengaku', 'keturunan', 'nabi', 'keturunan', 'raja', 'hulubalangketurunan', 'bajak', 'laut', 'perompa']</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>['gelar', 'habib', 'gelar', 'aku', 'turun', 'nabi', 'turun', 'raja', 'hulubalangketurunan', 'bajak', 'laut', 'perompa']</t>
         </is>
       </c>
     </row>
@@ -2131,34 +2366,39 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>14396</v>
+        <v>29894</v>
       </c>
       <c r="C48" t="n">
-        <v>184</v>
+        <v>349</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>rt terima kasih buya syafii yang begitu menginspirasi kami bergerak lewat ibtimes https</t>
+          <t>rt saya pesankan kepada mereka dalam berdakwah agar merangkul semua golongan dengan memakai bahasa otak dan bahasa hati</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>['rt', 'terima', 'kasih', 'buya', 'syafii', 'yang', 'begitu', 'menginspirasi', 'kami', 'bergerak', 'lewat', 'ibtimes', 'https']</t>
+          <t>['rt', 'saya', 'pesankan', 'kepada', 'mereka', 'dalam', 'berdakwah', 'agar', 'merangkul', 'semua', 'golongan', 'dengan', 'memakai', 'bahasa', 'otak', 'dan', 'bahasa', 'hati']</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
+          <t>['rt', 'saya', 'pesankan', 'kepada', 'mereka', 'dalam', 'berdakwah', 'agar', 'merangkul', 'semua', 'golongan', 'dengan', 'memakai', 'bahasa', 'otak', 'dan', 'bahasa', 'hati']</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>['terima', 'kasih', 'buya', 'syafii', 'menginspirasi', 'bergerak', 'ibtimes', 'https']</t>
+          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>['terima', 'kasih', 'buya', 'syafii', 'inspirasi', 'gerak', 'ibtimes', 'https']</t>
+          <t>['pesankan', 'berdakwah', 'merangkul', 'golongan', 'memakai', 'bahasa', 'otak', 'bahasa', 'hati']</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>['pesan', 'dakwah', 'rangkul', 'golong', 'pakai', 'bahasa', 'otak', 'bahasa', 'hati']</t>
         </is>
       </c>
     </row>
@@ -2167,34 +2407,39 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>14397</v>
+        <v>29895</v>
       </c>
       <c r="C49" t="n">
-        <v>184</v>
+        <v>349</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>rt kadang yang mengelilingi orang penting itu belum tentu orang baik banyak yang oportunis banyak musang berbulu ayam orang</t>
+          <t>mengiris rasa kemanusiaan dan rasionalitas kita saya mendoakan untuk kesembuhan dan keselamatan syeh ali jaber po</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>['rt', 'kadang', 'yang', 'mengelilingi', 'orang', 'penting', 'itu', 'belum', 'tentu', 'orang', 'baik', 'banyak', 'yang', 'oportunis', 'banyak', 'musang', 'berbulu', 'ayam', 'orang']</t>
+          <t>['mengiris', 'rasa', 'kemanusiaan', 'dan', 'rasionalitas', 'kita', 'saya', 'mendoakan', 'untuk', 'kesembuhan', 'dan', 'keselamatan', 'syeh', 'ali', 'jaber', 'po']</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 19 outcomes&gt;</t>
+          <t>['mengiris', 'rasa', 'kemanusiaan', 'dan', 'rasionalitas', 'kita', 'saya', 'mendoakan', 'untuk', 'kesembuhan', 'dan', 'keselamatan', 'syeh', 'ali', 'jaber', 'po']</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>['kadang', 'mengelilingi', 'orang', 'orang', 'oportunis', 'musang', 'berbulu', 'ayam', 'orang']</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>['kadang', 'keliling', 'orang', 'orang', 'oportunis', 'musang', 'bulu', 'ayam', 'orang']</t>
+          <t>['mengiris', 'kemanusiaan', 'rasionalitas', 'mendoakan', 'kesembuhan', 'keselamatan', 'syeh', 'ali', 'jaber', 'po']</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>['kir', 'manusia', 'rasionalitas', 'doa', 'sembuh', 'selamat', 'syeh', 'ali', 'jaber', 'po']</t>
         </is>
       </c>
     </row>
@@ -2203,34 +2448,39 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>14398</v>
+        <v>29896</v>
       </c>
       <c r="C50" t="n">
-        <v>184</v>
+        <v>349</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>rt kadang yang mengelilingi orang penting itu belum tentu orang baik banyak yang oportunis banyak musang</t>
+          <t>rt baik pak jakob oetama maupun pak malik fadjar keduanya telah beramal jariyah di bidang masing kita warisi semangat da</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>['rt', 'kadang', 'yang', 'mengelilingi', 'orang', 'penting', 'itu', 'belum', 'tentu', 'orang', 'baik', 'banyak', 'yang', 'oportunis', 'banyak', 'musang']</t>
+          <t>['rt', 'baik', 'pak', 'jakob', 'oetama', 'maupun', 'pak', 'malik', 'fadjar', 'keduanya', 'telah', 'beramal', 'jariyah', 'di', 'bidang', 'masing', 'kita', 'warisi', 'semangat', 'da']</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 16 outcomes&gt;</t>
+          <t>['rt', 'baik', 'pak', 'jakob', 'oetama', 'maupun', 'pak', 'malik', 'fadjar', 'keduanya', 'telah', 'beramal', 'jariyah', 'di', 'bidang', 'masing', 'kita', 'warisi', 'semangat', 'dan']</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>['kadang', 'mengelilingi', 'orang', 'orang', 'oportunis', 'musang']</t>
+          <t>&lt;FreqDist with 19 samples and 20 outcomes&gt;</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>['kadang', 'keliling', 'orang', 'orang', 'oportunis', 'musang']</t>
+          <t>['jakob', 'oetama', 'malik', 'fadjar', 'beramal', 'jariyah', 'bidang', 'warisi', 'semangat']</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>['jakob', 'oetama', 'malik', 'fadjar', 'amal', 'jariyah', 'bidang', 'waris', 'semangat']</t>
         </is>
       </c>
     </row>
@@ -2239,34 +2489,39 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>14399</v>
+        <v>29897</v>
       </c>
       <c r="C51" t="n">
-        <v>184</v>
+        <v>349</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>rt ini catatan kritis tentang laronlaron politik sebuah fenomena yang lazim terjadi di indonesia siapakah mereka</t>
+          <t xml:space="preserve">rt yml presiden republik indonesia sebagai salah seorang yang tertua di negeri ini batin saya menjerit dan </t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>['rt', 'ini', 'catatan', 'kritis', 'tentang', 'laronlaron', 'politik', 'sebuah', 'fenomena', 'yang', 'lazim', 'terjadi', 'di', 'indonesia', 'siapakah', 'mereka']</t>
+          <t>['rt', 'yml', 'presiden', 'republik', 'indonesia', 'sebagai', 'salah', 'seorang', 'yang', 'tertua', 'di', 'negeri', 'ini', 'batin', 'saya', 'menjerit', 'dan']</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['rt', 'yml', 'presiden', 'republik', 'indonesia', 'sebagai', 'salah', 'seorang', 'yang', 'tertua', 'di', 'negeri', 'ini', 'batin', 'saya', 'menjerit', 'dan']</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>['catatan', 'kritis', 'laronlaron', 'politik', 'fenomena', 'lazim', 'indonesia']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>['catat', 'kritis', 'laronlaron', 'politik', 'fenomena', 'lazim', 'indonesia']</t>
+          <t>['yml', 'presiden', 'republik', 'indonesia', 'salah', 'tertua', 'negeri', 'batin', 'menjerit']</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>['yml', 'presiden', 'republik', 'indonesia', 'salah', 'tua', 'negeri', 'batin', 'jerit']</t>
         </is>
       </c>
     </row>
@@ -2275,34 +2530,39 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>14400</v>
+        <v>29898</v>
       </c>
       <c r="C52" t="n">
-        <v>184</v>
+        <v>349</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>rt kadang yang mengelilingi orang penting itu belum tentu orang baik banyak yang oportunis banyak musang berbulu ayam ora</t>
+          <t>rt duka buya ahmad syafii maarif terhadap tenaga kesehatan</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>['rt', 'kadang', 'yang', 'mengelilingi', 'orang', 'penting', 'itu', 'belum', 'tentu', 'orang', 'baik', 'banyak', 'yang', 'oportunis', 'banyak', 'musang', 'berbulu', 'ayam', 'ora']</t>
+          <t>['rt', 'duka', 'buya', 'ahmad', 'syafii', 'maarif', 'terhadap', 'tenaga', 'kesehatan']</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 19 outcomes&gt;</t>
+          <t>['rt', 'duka', 'buya', 'ahmad', 'syafii', 'maarif', 'terhadap', 'tenaga', 'kesehatan']</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>['kadang', 'mengelilingi', 'orang', 'orang', 'oportunis', 'musang', 'berbulu', 'ayam', 'ora']</t>
+          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>['kadang', 'keliling', 'orang', 'orang', 'oportunis', 'musang', 'bulu', 'ayam', 'ora']</t>
+          <t>['duka', 'buya', 'ahmad', 'syafii', 'maarif', 'tenaga', 'kesehatan']</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>['duka', 'buya', 'ahmad', 'syafii', 'maarif', 'tenaga', 'sehat']</t>
         </is>
       </c>
     </row>
@@ -2311,34 +2571,39 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>14401</v>
+        <v>29899</v>
       </c>
       <c r="C53" t="n">
-        <v>184</v>
+        <v>349</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>rt yang mudamuda harus banyak membaca dan ikut terlibat membenahi negeri buya syafii</t>
+          <t>rt haedar jacob oetama is  visionary national figure</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>['rt', 'yang', 'mudamuda', 'harus', 'banyak', 'membaca', 'dan', 'ikut', 'terlibat', 'membenahi', 'negeri', 'buya', 'syafii']</t>
+          <t>['rt', 'haedar', 'jacob', 'oetama', 'is', 'visionary', 'national', 'figure']</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
+          <t>['rt', 'haedar', 'jacob', 'oetama', 'is', 'visionary', 'nasional', 'figure']</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>['mudamuda', 'membaca', 'terlibat', 'membenahi', 'negeri', 'buya', 'syafii']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>['mudamuda', 'baca', 'libat', 'benah', 'negeri', 'buya', 'syafii']</t>
+          <t>['haedar', 'jacob', 'oetama', 'is', 'visionary', 'nasional', 'figure']</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>['haedar', 'jacob', 'oetama', 'is', 'visionary', 'nasional', 'figure']</t>
         </is>
       </c>
     </row>
@@ -2347,34 +2612,39 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>14402</v>
+        <v>29900</v>
       </c>
       <c r="C54" t="n">
-        <v>184</v>
+        <v>349</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>rt demi menjaga kelangsungan hidup kita semua semangat solidaritas sosial dan saling membantu perlu selalu diingatkan</t>
+          <t xml:space="preserve">rt jakob oetama dan mallik fadjar telah mewarisi kearifan dan keteladanan sebagai cendekiawan bangsa tak lengkap bila isi </t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>['rt', 'demi', 'menjaga', 'kelangsungan', 'hidup', 'kita', 'semua', 'semangat', 'solidaritas', 'sosial', 'dan', 'saling', 'membantu', 'perlu', 'selalu', 'diingatkan']</t>
+          <t>['rt', 'jakob', 'oetama', 'dan', 'mallik', 'fadjar', 'telah', 'mewarisi', 'kearifan', 'dan', 'keteladanan', 'sebagai', 'cendekiawan', 'bangsa', 'tak', 'lengkap', 'bila', 'isi']</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['rt', 'jakob', 'oetama', 'dan', 'mallik', 'fadjar', 'telah', 'mewarisi', 'kearifan', 'dan', 'keteladanan', 'sebagai', 'cendekiawan', 'bangsa', 'tak', 'lengkap', 'bila', 'isi']</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>['menjaga', 'kelangsungan', 'hidup', 'semangat', 'solidaritas', 'sosial', 'membantu']</t>
+          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>['jaga', 'langsung', 'hidup', 'semangat', 'solidaritas', 'sosial', 'bantu']</t>
+          <t>['jakob', 'oetama', 'mallik', 'fadjar', 'mewarisi', 'kearifan', 'keteladanan', 'cendekiawan', 'bangsa', 'lengkap', 'isi']</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>['jakob', 'oetama', 'mallik', 'fadjar', 'waris', 'arif', 'teladan', 'cendekiawan', 'bangsa', 'lengkap', 'isi']</t>
         </is>
       </c>
     </row>
@@ -2383,34 +2653,39 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>14403</v>
+        <v>29901</v>
       </c>
       <c r="C55" t="n">
-        <v>184</v>
+        <v>349</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>rt seorang pemimpin sejati harus berani mengambi risiko atas segala keputusan yang dibuatnya</t>
+          <t>rt surat buya syafii maarif untuk presiden jokowi</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>['rt', 'seorang', 'pemimpin', 'sejati', 'harus', 'berani', 'mengambi', 'risiko', 'atas', 'segala', 'keputusan', 'yang', 'dibuatnya']</t>
+          <t>['rt', 'surat', 'buya', 'syafii', 'maarif', 'untuk', 'presiden', 'jokowi']</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
+          <t>['rt', 'surat', 'buya', 'syafii', 'maarif', 'untuk', 'presiden', 'jokowi']</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>['pemimpin', 'sejati', 'berani', 'mengambi', 'risiko', 'keputusan']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>['pimpin', 'sejati', 'berani', 'ambi', 'risiko', 'putus']</t>
+          <t>['surat', 'buya', 'syafii', 'maarif', 'presiden', 'jokowi']</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>['surat', 'buya', 'syafii', 'maarif', 'presiden', 'jokowi']</t>
         </is>
       </c>
     </row>
@@ -2419,34 +2694,39 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>14404</v>
+        <v>29902</v>
       </c>
       <c r="C56" t="n">
-        <v>184</v>
+        <v>349</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>rt inilah dunia tempat kita bermukim sementara untuk kita pelihara bersama bukan untuk ditaklukkan</t>
+          <t>rt pimpinan pusat muhammadiyah menyampaikan belasungkawa yang mendalam atas meninggalnya bapak jacob oetama pendiri kompas grame</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>['rt', 'inilah', 'dunia', 'tempat', 'kita', 'bermukim', 'sementara', 'untuk', 'kita', 'pelihara', 'bersama', 'bukan', 'untuk', 'ditaklukkan']</t>
+          <t>['rt', 'pimpinan', 'pusat', 'muhammadiyah', 'menyampaikan', 'belasungkawa', 'yang', 'mendalam', 'atas', 'meninggalnya', 'bapak', 'jacob', 'oetama', 'pendiri', 'kompas', 'grame']</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 14 outcomes&gt;</t>
+          <t>['rt', 'pimpinan', 'pusat', 'muhammadiyah', 'menyampaikan', 'belasungkawa', 'yang', 'mendalam', 'atas', 'meninggalnya', 'bapak', 'jacob', 'oetama', 'pendiri', 'kompas', 'grame']</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>['dunia', 'bermukim', 'pelihara', 'ditaklukkan']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>['dunia', 'mukim', 'pelihara', 'takluk']</t>
+          <t>['pimpinan', 'pusat', 'muhammadiyah', 'belasungkawa', 'mendalam', 'meninggalnya', 'jacob', 'oetama', 'pendiri', 'kompas', 'grame']</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>['pimpin', 'pusat', 'muhammadiyah', 'belasungkawa', 'dalam', 'tinggal', 'jacob', 'oetama', 'diri', 'kompas', 'grame']</t>
         </is>
       </c>
     </row>
@@ -2455,34 +2735,39 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>14405</v>
+        <v>29903</v>
       </c>
       <c r="C57" t="n">
-        <v>184</v>
+        <v>349</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>rt disiplin mencuci tangan dgn sabun dan air mengalir bisa menaklukkannya saya setuju dgn bill gates agar umat manusia he</t>
+          <t>rt wartawan dari dll tabayyun apakah ini benar dari buya</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>['rt', 'disiplin', 'mencuci', 'tangan', 'dgn', 'sabun', 'dan', 'air', 'mengalir', 'bisa', 'menaklukkannya', 'saya', 'setuju', 'dgn', 'bill', 'gates', 'agar', 'umat', 'manusia', 'he']</t>
+          <t>['rt', 'wartawan', 'dari', 'dll', 'tabayyun', 'apakah', 'ini', 'benar', 'dari', 'buya']</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 20 outcomes&gt;</t>
+          <t>['rt', 'wartawan', 'dari', 'dan, lain, lain', 'tabayun', 'apakah', 'ini', 'benar', 'dari', 'buya']</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>['disiplin', 'mencuci', 'tangan', 'sabun', 'air', 'mengalir', 'menaklukkannya', 'setuju', 'bill', 'gates', 'umat', 'manusia', 'he']</t>
+          <t>&lt;FreqDist with 9 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>['disiplin', 'cuci', 'tangan', 'sabun', 'air', 'alir', 'takluk', 'tuju', 'bill', 'gates', 'umat', 'manusia', 'he']</t>
+          <t>['wartawan', 'dan, lain, lain', 'tabayun', 'buya']</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>['wartawan', 'dan lain lain', 'tabayun', 'buya']</t>
         </is>
       </c>
     </row>
@@ -2491,34 +2776,39 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>14406</v>
+        <v>29904</v>
       </c>
       <c r="C58" t="n">
-        <v>184</v>
+        <v>349</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>rt pesan kemanusiaan untuk kita semua</t>
+          <t>rt catatan soal sejarah politik santri as</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>['rt', 'pesan', 'kemanusiaan', 'untuk', 'kita', 'semua']</t>
+          <t>['rt', 'catatan', 'soal', 'sejarah', 'politik', 'santri', 'as']</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['rt', 'catatan', 'soal', 'sejarah', 'politik', 'santri', 'as']</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>['pesan', 'kemanusiaan']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>['pesan', 'manusia']</t>
+          <t>['catatan', 'sejarah', 'politik', 'santri', 'as']</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>['catat', 'sejarah', 'politik', 'santri', 'as']</t>
         </is>
       </c>
     </row>
@@ -2527,34 +2817,39 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>14407</v>
+        <v>29905</v>
       </c>
       <c r="C59" t="n">
-        <v>184</v>
+        <v>349</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>demi menjaga kelangsungan hidup kita semua semangat solidaritas sosial dan saling membantu perlu selalu diingatka</t>
+          <t>rt sehat sehat dan panjang umur buya</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>['demi', 'menjaga', 'kelangsungan', 'hidup', 'kita', 'semua', 'semangat', 'solidaritas', 'sosial', 'dan', 'saling', 'membantu', 'perlu', 'selalu', 'diingatka']</t>
+          <t>['rt', 'sehat', 'sehat', 'dan', 'panjang', 'umur', 'buya']</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['rt', 'sehat', 'sehat', 'dan', 'panjang', 'umur', 'buya']</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>['menjaga', 'kelangsungan', 'hidup', 'semangat', 'solidaritas', 'sosial', 'membantu', 'diingatka']</t>
+          <t>&lt;FreqDist with 6 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>['jaga', 'langsung', 'hidup', 'semangat', 'solidaritas', 'sosial', 'bantu', 'diingatka']</t>
+          <t>['sehat', 'sehat', 'umur', 'buya']</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>['sehat', 'sehat', 'umur', 'buya']</t>
         </is>
       </c>
     </row>
@@ -2563,34 +2858,39 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>14408</v>
+        <v>29906</v>
       </c>
       <c r="C60" t="n">
-        <v>184</v>
+        <v>349</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>rt yang mudamuda harus mengerti betul persoalan bangsa berbasis data banyak membaca dan ikut terlibat membenahi negeri</t>
+          <t>rt smoga slalu dalam lindungan allah swt  bapak</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>['rt', 'yang', 'mudamuda', 'harus', 'mengerti', 'betul', 'persoalan', 'bangsa', 'berbasis', 'data', 'banyak', 'membaca', 'dan', 'ikut', 'terlibat', 'membenahi', 'negeri']</t>
+          <t>['rt', 'smoga', 'slalu', 'dalam', 'lindungan', 'allah', 'swt', 'bapak']</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['rt', 'semoga', 'selalu', 'dalam', 'lindungan', 'allah', 'subhanahu, wa, taala', 'bapak']</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>['mudamuda', 'mengerti', 'bangsa', 'berbasis', 'data', 'membaca', 'terlibat', 'membenahi', 'negeri']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>['mudamuda', 'erti', 'bangsa', 'bas', 'data', 'baca', 'libat', 'benah', 'negeri']</t>
+          <t>['semoga', 'lindungan', 'allah', 'subhanahu, wa, taala']</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>['moga', 'lindung', 'allah', 'subhanahu wa taala']</t>
         </is>
       </c>
     </row>
@@ -2599,34 +2899,39 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>14409</v>
+        <v>29907</v>
       </c>
       <c r="C61" t="n">
-        <v>184</v>
+        <v>349</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>rt terima kasih atas partisipasi dan rekomendasi masyarakat indonesia untuk para calon penerima maarif award dewan</t>
+          <t>rt tahniah tahun buya ahmad syafii maarif geotimes</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>['rt', 'terima', 'kasih', 'atas', 'partisipasi', 'dan', 'rekomendasi', 'masyarakat', 'indonesia', 'untuk', 'para', 'calon', 'penerima', 'maarif', 'award', 'dewan']</t>
+          <t>['rt', 'tahniah', 'tahun', 'buya', 'ahmad', 'syafii', 'maarif', 'geotimes']</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['rt', 'tahniah', 'tahun', 'buya', 'ahmad', 'syafii', 'maarif', 'geotimes']</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>['terima', 'kasih', 'partisipasi', 'rekomendasi', 'masyarakat', 'indonesia', 'calon', 'penerima', 'maarif', 'award', 'dewan']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>['terima', 'kasih', 'partisipasi', 'rekomendasi', 'masyarakat', 'indonesia', 'calon', 'terima', 'maarif', 'award', 'dewan']</t>
+          <t>['tahniah', 'buya', 'ahmad', 'syafii', 'maarif', 'geotimes']</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>['tahniah', 'buya', 'ahmad', 'syafii', 'maarif', 'geotimes']</t>
         </is>
       </c>
     </row>
@@ -2635,34 +2940,39 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>14410</v>
+        <v>29908</v>
       </c>
       <c r="C62" t="n">
-        <v>184</v>
+        <v>349</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>rt rancak otak jangan nganggur kata</t>
+          <t>rt tentang buya tulisan mas muslim puritan pembela pancasila semoga beliau sehat selalu amiin</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>['rt', 'rancak', 'otak', 'jangan', 'nganggur', 'kata']</t>
+          <t>['rt', 'tentang', 'buya', 'tulisan', 'mas', 'muslim', 'puritan', 'pembela', 'pancasila', 'semoga', 'beliau', 'sehat', 'selalu', 'amiin']</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['rt', 'tentang', 'buya', 'tulisan', 'mas', 'muslim', 'puritan', 'pembela', 'pancasila', 'semoga', 'beliau', 'sehat', 'selalu', 'amin']</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>['rancak', 'otak', 'nganggur']</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>['rancak', 'otak', 'nganggur']</t>
+          <t>['buya', 'tulisan', 'mas', 'muslim', 'puritan', 'pembela', 'pancasila', 'semoga', 'beliau', 'sehat', 'amin']</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>['buya', 'tulis', 'mas', 'muslim', 'puritan', 'bela', 'pancasila', 'moga', 'beliau', 'sehat', 'amin']</t>
         </is>
       </c>
     </row>
@@ -2671,34 +2981,39 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>14411</v>
+        <v>29909</v>
       </c>
       <c r="C63" t="n">
-        <v>184</v>
+        <v>349</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>rt cak nur bersama pada suatu pertemuan</t>
+          <t>rt semoga selalu dilimpahi kesehatan buya</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>['rt', 'cak', 'nur', 'bersama', 'pada', 'suatu', 'pertemuan']</t>
+          <t>['rt', 'semoga', 'selalu', 'dilimpahi', 'kesehatan', 'buya']</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['rt', 'semoga', 'selalu', 'dilimpahi', 'kesehatan', 'buya']</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>['cak', 'nur', 'pertemuan']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>['cak', 'nur', 'temu']</t>
+          <t>['semoga', 'dilimpahi', 'kesehatan', 'buya']</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>['moga', 'limpah', 'sehat', 'buya']</t>
         </is>
       </c>
     </row>
@@ -2707,34 +3022,39 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>14412</v>
+        <v>29910</v>
       </c>
       <c r="C64" t="n">
-        <v>184</v>
+        <v>349</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>rt ekstremisme dalam penafsiran kitab suci dan penawarnya artikel nahrowi sangat mencerahkan buya syafii maarif https</t>
+          <t>rt sehat selalu buya semoga dalam lindungan allah swt selalu aamiin</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>['rt', 'ekstremisme', 'dalam', 'penafsiran', 'kitab', 'suci', 'dan', 'penawarnya', 'artikel', 'nahrowi', 'sangat', 'mencerahkan', 'buya', 'syafii', 'maarif', 'https']</t>
+          <t>['rt', 'sehat', 'selalu', 'buya', 'semoga', 'dalam', 'lindungan', 'allah', 'swt', 'selalu', 'aamiin']</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['rt', 'sehat', 'selalu', 'buya', 'semoga', 'dalam', 'lindungan', 'allah', 'subhanahu, wa, taala', 'selalu', 'amin']</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>['ekstremisme', 'penafsiran', 'kitab', 'suci', 'penawarnya', 'artikel', 'nahrowi', 'mencerahkan', 'buya', 'syafii', 'maarif', 'https']</t>
+          <t>&lt;FreqDist with 10 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>['ekstrem', 'tafsir', 'kitab', 'suci', 'tawar', 'artikel', 'nahrowi', 'cerah', 'buya', 'syafii', 'maarif', 'https']</t>
+          <t>['sehat', 'buya', 'semoga', 'lindungan', 'allah', 'subhanahu, wa, taala', 'amin']</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>['sehat', 'buya', 'moga', 'lindung', 'allah', 'subhanahu wa taala', 'amin']</t>
         </is>
       </c>
     </row>
@@ -2743,34 +3063,39 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>14413</v>
+        <v>29911</v>
       </c>
       <c r="C65" t="n">
-        <v>184</v>
+        <v>349</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>rt maarif award berkas pencalonan individu maupun lembaga dikirim selambatlambatnya tanggal februari peng</t>
+          <t>rt btp selamat ulang tahun buya syafii maarif semoga selalu diberikan kesehatan keberkahan panjang umur dan senan</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>['rt', 'maarif', 'award', 'berkas', 'pencalonan', 'individu', 'maupun', 'lembaga', 'dikirim', 'selambatlambatnya', 'tanggal', 'februari', 'peng']</t>
+          <t>['rt', 'btp', 'selamat', 'ulang', 'tahun', 'buya', 'syafii', 'maarif', 'semoga', 'selalu', 'diberikan', 'kesehatan', 'keberkahan', 'panjang', 'umur', 'dan', 'senan']</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
+          <t>['rt', 'ahok', 'selamat', 'ulang', 'tahun', 'buya', 'syafii', 'maarif', 'semoga', 'selalu', 'diberikan', 'kesehatan', 'keberkahan', 'panjang', 'umur', 'dan', 'senan']</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>['maarif', 'award', 'berkas', 'pencalonan', 'individu', 'lembaga', 'dikirim', 'selambatlambatnya', 'tanggal', 'februari', 'peng']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>['maarif', 'award', 'berkas', 'calon', 'individu', 'lembaga', 'kirim', 'selambatlambatnya', 'tanggal', 'februari', 'peng']</t>
+          <t>['ahok', 'selamat', 'ulang', 'buya', 'syafii', 'maarif', 'semoga', 'kesehatan', 'keberkahan', 'umur', 'senan']</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>['ahok', 'selamat', 'ulang', 'buya', 'syafii', 'maarif', 'moga', 'sehat', 'berkah', 'umur', 'sen']</t>
         </is>
       </c>
     </row>
@@ -2779,34 +3104,39 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>14414</v>
+        <v>29912</v>
       </c>
       <c r="C66" t="n">
-        <v>184</v>
+        <v>349</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>rt peluncuran dan diskusi jurnal maarif edisi terbaru memperkuat kembali moderatisme muhammadiyah konsepsi interpretas</t>
+          <t>saya ikuti seluruhnya tp sy tidaklah sehebat seperti yg dibayangkan saya merasa terlalu banyak umur saya yg tersi</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>['rt', 'peluncuran', 'dan', 'diskusi', 'jurnal', 'maarif', 'edisi', 'terbaru', 'memperkuat', 'kembali', 'moderatisme', 'muhammadiyah', 'konsepsi', 'interpretas']</t>
+          <t>['saya', 'ikuti', 'seluruhnya', 'tp', 'sy', 'tidaklah', 'sehebat', 'seperti', 'yg', 'dibayangkan', 'saya', 'merasa', 'terlalu', 'banyak', 'umur', 'saya', 'yg', 'tersi']</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>['saya', 'ikuti', 'seluruhnya', 'tetapi', 'saya', 'tidaklah', 'sehebat', 'seperti', 'yang', 'dibayangkan', 'saya', 'merasa', 'terlalu', 'banyak', 'umur', 'saya', 'yang', 'tersi']</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>['peluncuran', 'diskusi', 'jurnal', 'maarif', 'edisi', 'terbaru', 'memperkuat', 'moderatisme', 'muhammadiyah', 'konsepsi', 'interpretas']</t>
+          <t>&lt;FreqDist with 14 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>['luncur', 'diskusi', 'jurnal', 'maarif', 'edisi', 'baru', 'kuat', 'moderat', 'muhammadiyah', 'konsepsi', 'interpretas']</t>
+          <t>['ikuti', 'sehebat', 'dibayangkan', 'umur', 'tersi']</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>['ikut', 'hebat', 'bayang', 'umur', 'tersi']</t>
         </is>
       </c>
     </row>
@@ -2815,34 +3145,39 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>14415</v>
+        <v>29913</v>
       </c>
       <c r="C67" t="n">
-        <v>184</v>
+        <v>349</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>rt dalam usia sudah larut ini agenda utamaku adalah turut berbuat sesuatu betapapun kecilnya agar indonesia sebagai se</t>
+          <t>racun perpecahan itu telah ditebar dari dulu resonansi mei</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>['rt', 'dalam', 'usia', 'sudah', 'larut', 'ini', 'agenda', 'utamaku', 'adalah', 'turut', 'berbuat', 'sesuatu', 'betapapun', 'kecilnya', 'agar', 'indonesia', 'sebagai', 'se']</t>
+          <t>['racun', 'perpecahan', 'itu', 'telah', 'ditebar', 'dari', 'dulu', 'resonansi', 'mei']</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
+          <t>['racun', 'perpecahan', 'itu', 'telah', 'ditebar', 'dari', 'dulu', 'resonansi', 'mei']</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>['usia', 'larut', 'agenda', 'utamaku', 'berbuat', 'betapapun', 'kecilnya', 'indonesia']</t>
+          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>['usia', 'larut', 'agenda', 'utama', 'buat', 'betapa', 'kecil', 'indonesia']</t>
+          <t>['racun', 'perpecahan', 'ditebar', 'resonansi', 'mei']</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>['racun', 'pecah', 'tebar', 'resonansi', 'mei']</t>
         </is>
       </c>
     </row>
@@ -2851,34 +3186,39 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>14416</v>
+        <v>29914</v>
       </c>
       <c r="C68" t="n">
-        <v>184</v>
+        <v>349</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>rt sila simak pekan ini tentang prri ii</t>
+          <t>rt benarkah dunia islam ringkih silakan simak pemikiran buya syafii maarif tentang dunia islam yang ringkih</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>['rt', 'sila', 'simak', 'pekan', 'ini', 'tentang', 'prri', 'ii']</t>
+          <t>['rt', 'benarkah', 'dunia', 'islam', 'ringkih', 'silakan', 'simak', 'pemikiran', 'buya', 'syafii', 'maarif', 'tentang', 'dunia', 'islam', 'yang', 'ringkih']</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['rt', 'benarkah', 'dunia', 'islam', 'ringkih', 'silakan', 'simak', 'pemikiran', 'buya', 'syafii', 'maarif', 'tentang', 'dunia', 'islam', 'yang', 'ringkih']</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>['sila', 'simak', 'pekan', 'prri', 'ii']</t>
+          <t>&lt;FreqDist with 13 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>['sila', 'simak', 'pekan', 'prri', 'ii']</t>
+          <t>['dunia', 'islam', 'ringkih', 'silakan', 'simak', 'pemikiran', 'buya', 'syafii', 'maarif', 'dunia', 'islam', 'ringkih']</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>['dunia', 'islam', 'ringkih', 'sila', 'simak', 'pikir', 'buya', 'syafii', 'maarif', 'dunia', 'islam', 'ringkih']</t>
         </is>
       </c>
     </row>
@@ -2887,34 +3227,39 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>14417</v>
+        <v>29915</v>
       </c>
       <c r="C69" t="n">
-        <v>184</v>
+        <v>349</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>rt serambi buya jejak langkah dan inspirasi buya syafii maarif</t>
+          <t>rt turut berduka cita yg mendalam atas wafatnya bapak ae priyono semoga almarhum mendapatkan tempat terbaik di sisi tuha</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>['rt', 'serambi', 'buya', 'jejak', 'langkah', 'dan', 'inspirasi', 'buya', 'syafii', 'maarif']</t>
+          <t>['rt', 'turut', 'berduka', 'cita', 'yg', 'mendalam', 'atas', 'wafatnya', 'bapak', 'ae', 'priyono', 'semoga', 'almarhum', 'mendapatkan', 'tempat', 'terbaik', 'di', 'sisi', 'tuha']</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 10 outcomes&gt;</t>
+          <t>['rt', 'turut', 'berduka', 'cita', 'yang', 'mendalam', 'atas', 'wafatnya', 'bapak', 'saja', 'priyono', 'semoga', 'almarhum', 'mendapatkan', 'tempat', 'terbaik', 'di', 'sisi', 'tuha']</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>['serambi', 'buya', 'jejak', 'langkah', 'inspirasi', 'buya', 'syafii', 'maarif']</t>
+          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>['serambi', 'buya', 'jejak', 'langkah', 'inspirasi', 'buya', 'syafii', 'maarif']</t>
+          <t>['berduka', 'cita', 'mendalam', 'wafatnya', 'priyono', 'semoga', 'almarhum', 'terbaik', 'sisi', 'tuha']</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>['duka', 'cita', 'dalam', 'wafat', 'priyono', 'moga', 'almarhum', 'baik', 'sisi', 'tuha']</t>
         </is>
       </c>
     </row>
@@ -2923,34 +3268,39 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>14418</v>
+        <v>29916</v>
       </c>
       <c r="C70" t="n">
-        <v>184</v>
+        <v>349</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>rt baca sejarahmu</t>
+          <t>rt artikel peneliti senior seri ke tentang compatibility between islam and democracy</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>['rt', 'baca', 'sejarahmu']</t>
+          <t>['rt', 'artikel', 'peneliti', 'senior', 'seri', 'ke', 'tentang', 'compatibility', 'between', 'islam', 'and', 'democracy']</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['rt', 'artikel', 'peneliti', 'senior', 'seri', 'ke', 'tentang', 'compatibility', 'between', 'islam', 'and', 'democracy']</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>['baca', 'sejarahmu']</t>
+          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>['baca', 'sejarah']</t>
+          <t>['artikel', 'peneliti', 'senior', 'seri', 'compatibility', 'between', 'islam', 'and', 'democracy']</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>['artikel', 'teliti', 'senior', 'seri', 'compatibility', 'between', 'islam', 'and', 'democracy']</t>
         </is>
       </c>
     </row>
@@ -2959,34 +3309,39 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>14419</v>
+        <v>29917</v>
       </c>
       <c r="C71" t="n">
-        <v>184</v>
+        <v>349</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>rt kembali di gelar temukan dan calonkan tokoh lokal yang konsisten memperjuangkan kemanusiaan nilai</t>
+          <t>rt terima kasih buya syafii</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>['rt', 'kembali', 'di', 'gelar', 'temukan', 'dan', 'calonkan', 'tokoh', 'lokal', 'yang', 'konsisten', 'memperjuangkan', 'kemanusiaan', 'nilai']</t>
+          <t>['rt', 'terima', 'kasih', 'buya', 'syafii']</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>['rt', 'terima', 'kasih', 'buya', 'syafii']</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>['gelar', 'temukan', 'calonkan', 'tokoh', 'lokal', 'konsisten', 'memperjuangkan', 'kemanusiaan', 'nilai']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>['gelar', 'temu', 'calon', 'tokoh', 'lokal', 'konsisten', 'juang', 'manusia', 'nilai']</t>
+          <t>['terima', 'kasih', 'buya', 'syafii']</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>['terima', 'kasih', 'buya', 'syafii']</t>
         </is>
       </c>
     </row>
@@ -2995,34 +3350,39 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>14420</v>
+        <v>29918</v>
       </c>
       <c r="C72" t="n">
-        <v>184</v>
+        <v>349</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>rt assalamualaikum dan selamat pagi mari baca resonansi buya syafii prri harian republika</t>
+          <t>rt terima kasih buya syafii yang begitu menginspirasi kami bergerak lewat ibtimes https</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>['rt', 'assalamualaikum', 'dan', 'selamat', 'pagi', 'mari', 'baca', 'resonansi', 'buya', 'syafii', 'prri', 'harian', 'republika']</t>
+          <t>['rt', 'terima', 'kasih', 'buya', 'syafii', 'yang', 'begitu', 'menginspirasi', 'kami', 'bergerak', 'lewat', 'ibtimes', 'https']</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
+          <t>['rt', 'terima', 'kasih', 'buya', 'syafii', 'yang', 'begitu', 'menginspirasi', 'kami', 'bergerak', 'lewat', 'ibtimes', 'hypertext, transfer, protocol, over, secure, socket, layer']</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>['assalamualaikum', 'selamat', 'pagi', 'mari', 'baca', 'resonansi', 'buya', 'syafii', 'prri', 'harian', 'republika']</t>
-        </is>
-      </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>['assalamualaikum', 'selamat', 'pagi', 'mari', 'baca', 'resonansi', 'buya', 'syafii', 'prri', 'hari', 'republika']</t>
+          <t>['terima', 'kasih', 'buya', 'syafii', 'menginspirasi', 'bergerak', 'ibtimes', 'hypertext, transfer, protocol, over, secure, socket, layer']</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>['terima', 'kasih', 'buya', 'syafii', 'inspirasi', 'gerak', 'ibtimes', 'hypertext transfer protocol over secure socket layer']</t>
         </is>
       </c>
     </row>
@@ -3031,34 +3391,39 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>14421</v>
+        <v>29919</v>
       </c>
       <c r="C73" t="n">
-        <v>184</v>
+        <v>349</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>rt kembali di gelar temukan dan calonkan tokoh lokal yang konsisten memperjuangkan kemanusiaan nilai</t>
+          <t>rt kadang yang mengelilingi orang penting itu belum tentu orang baik banyak yang oportunis banyak musang berbulu ayam orang</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>['rt', 'kembali', 'di', 'gelar', 'temukan', 'dan', 'calonkan', 'tokoh', 'lokal', 'yang', 'konsisten', 'memperjuangkan', 'kemanusiaan', 'nilai']</t>
+          <t>['rt', 'kadang', 'yang', 'mengelilingi', 'orang', 'penting', 'itu', 'belum', 'tentu', 'orang', 'baik', 'banyak', 'yang', 'oportunis', 'banyak', 'musang', 'berbulu', 'ayam', 'orang']</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>['rt', 'kadang', 'yang', 'mengelilingi', 'orang', 'penting', 'itu', 'belum', 'tentu', 'orang', 'baik', 'banyak', 'yang', 'oportunis', 'banyak', 'musang', 'berbulu', 'ayam', 'orang']</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>['gelar', 'temukan', 'calonkan', 'tokoh', 'lokal', 'konsisten', 'memperjuangkan', 'kemanusiaan', 'nilai']</t>
+          <t>&lt;FreqDist with 15 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>['gelar', 'temu', 'calon', 'tokoh', 'lokal', 'konsisten', 'juang', 'manusia', 'nilai']</t>
+          <t>['kadang', 'mengelilingi', 'orang', 'orang', 'oportunis', 'musang', 'berbulu', 'ayam', 'orang']</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>['kadang', 'keliling', 'orang', 'orang', 'oportunis', 'musang', 'bulu', 'ayam', 'orang']</t>
         </is>
       </c>
     </row>
@@ -3067,34 +3432,39 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>14422</v>
+        <v>29920</v>
       </c>
       <c r="C74" t="n">
-        <v>184</v>
+        <v>349</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>rt maarif award merupakan ikhtiar menemukan pribadipribadi penggerak dan tangguh yang berjuang untuk kemanusiaan di</t>
+          <t>rt kadang yang mengelilingi orang penting itu belum tentu orang baik banyak yang oportunis banyak musang</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>['rt', 'maarif', 'award', 'merupakan', 'ikhtiar', 'menemukan', 'pribadipribadi', 'penggerak', 'dan', 'tangguh', 'yang', 'berjuang', 'untuk', 'kemanusiaan', 'di']</t>
+          <t>['rt', 'kadang', 'yang', 'mengelilingi', 'orang', 'penting', 'itu', 'belum', 'tentu', 'orang', 'baik', 'banyak', 'yang', 'oportunis', 'banyak', 'musang']</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['rt', 'kadang', 'yang', 'mengelilingi', 'orang', 'penting', 'itu', 'belum', 'tentu', 'orang', 'baik', 'banyak', 'yang', 'oportunis', 'banyak', 'musang']</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>['maarif', 'award', 'ikhtiar', 'menemukan', 'pribadipribadi', 'penggerak', 'tangguh', 'berjuang', 'kemanusiaan']</t>
+          <t>&lt;FreqDist with 13 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>['maarif', 'award', 'ikhtiar', 'temu', 'pribadipribadi', 'gerak', 'tangguh', 'juang', 'manusia']</t>
+          <t>['kadang', 'mengelilingi', 'orang', 'orang', 'oportunis', 'musang']</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>['kadang', 'keliling', 'orang', 'orang', 'oportunis', 'musang']</t>
         </is>
       </c>
     </row>
@@ -3103,34 +3473,39 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>14423</v>
+        <v>29921</v>
       </c>
       <c r="C75" t="n">
-        <v>184</v>
+        <v>349</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>rt saya sudah lama mengatakan umat muslim mundur karena kerapuhan dari dalam bukan terutama karena faktor luar dengan</t>
+          <t>rt ini catatan kritis tentang laronlaron politik sebuah fenomena yang lazim terjadi di indonesia siapakah mereka</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>['rt', 'saya', 'sudah', 'lama', 'mengatakan', 'umat', 'muslim', 'mundur', 'karena', 'kerapuhan', 'dari', 'dalam', 'bukan', 'terutama', 'karena', 'faktor', 'luar', 'dengan']</t>
+          <t>['rt', 'ini', 'catatan', 'kritis', 'tentang', 'laronlaron', 'politik', 'sebuah', 'fenomena', 'yang', 'lazim', 'terjadi', 'di', 'indonesia', 'siapakah', 'mereka']</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
+          <t>['rt', 'ini', 'catatan', 'kritis', 'tentang', 'laronlaron', 'politik', 'sebuah', 'fenomena', 'yang', 'lazim', 'terjadi', 'di', 'indonesia', 'siapakah', 'mereka']</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>['umat', 'muslim', 'mundur', 'kerapuhan', 'faktor']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>['umat', 'muslim', 'mundur', 'rapuh', 'faktor']</t>
+          <t>['catatan', 'kritis', 'laronlaron', 'politik', 'fenomena', 'lazim', 'indonesia']</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>['catat', 'kritis', 'laronlaron', 'politik', 'fenomena', 'lazim', 'indonesia']</t>
         </is>
       </c>
     </row>
@@ -3139,34 +3514,39 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>14424</v>
+        <v>29922</v>
       </c>
       <c r="C76" t="n">
-        <v>184</v>
+        <v>349</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>rt indonesia berduka doa kami menyertai kepulangan gus sholah kepada dzat yang maha agung semoga khusnul khotimah</t>
+          <t>rt kadang yang mengelilingi orang penting itu belum tentu orang baik banyak yang oportunis banyak musang berbulu ayam ora</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>['rt', 'indonesia', 'berduka', 'doa', 'kami', 'menyertai', 'kepulangan', 'gus', 'sholah', 'kepada', 'dzat', 'yang', 'maha', 'agung', 'semoga', 'khusnul', 'khotimah']</t>
+          <t>['rt', 'kadang', 'yang', 'mengelilingi', 'orang', 'penting', 'itu', 'belum', 'tentu', 'orang', 'baik', 'banyak', 'yang', 'oportunis', 'banyak', 'musang', 'berbulu', 'ayam', 'ora']</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['rt', 'kadang', 'yang', 'mengelilingi', 'orang', 'penting', 'itu', 'belum', 'tentu', 'orang', 'baik', 'banyak', 'yang', 'oportunis', 'banyak', 'musang', 'berbulu', 'ayam', 'tidak']</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>['indonesia', 'berduka', 'doa', 'menyertai', 'kepulangan', 'gus', 'sholah', 'dzat', 'maha', 'agung', 'semoga', 'khusnul', 'khotimah']</t>
+          <t>&lt;FreqDist with 16 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>['indonesia', 'duka', 'doa', 'serta', 'pulang', 'gus', 'sholah', 'dzat', 'maha', 'agung', 'moga', 'khusnul', 'khotimah']</t>
+          <t>['kadang', 'mengelilingi', 'orang', 'orang', 'oportunis', 'musang', 'berbulu', 'ayam']</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>['kadang', 'keliling', 'orang', 'orang', 'oportunis', 'musang', 'bulu', 'ayam']</t>
         </is>
       </c>
     </row>
@@ -3175,34 +3555,39 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>14425</v>
+        <v>29923</v>
       </c>
       <c r="C77" t="n">
-        <v>184</v>
+        <v>349</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>rt mafia migas</t>
+          <t>rt yang mudamuda harus banyak membaca dan ikut terlibat membenahi negeri buya syafii</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>['rt', 'mafia', 'migas']</t>
+          <t>['rt', 'yang', 'mudamuda', 'harus', 'banyak', 'membaca', 'dan', 'ikut', 'terlibat', 'membenahi', 'negeri', 'buya', 'syafii']</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['rt', 'yang', 'mudamuda', 'harus', 'banyak', 'membaca', 'dan', 'ikut', 'terlibat', 'membenahi', 'negeri', 'buya', 'syafii']</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>['mafia', 'migas']</t>
+          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>['mafia', 'migas']</t>
+          <t>['mudamuda', 'membaca', 'terlibat', 'membenahi', 'negeri', 'buya', 'syafii']</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>['mudamuda', 'baca', 'libat', 'benah', 'negeri', 'buya', 'syafii']</t>
         </is>
       </c>
     </row>
@@ -3211,34 +3596,39 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>14426</v>
+        <v>29924</v>
       </c>
       <c r="C78" t="n">
-        <v>184</v>
+        <v>349</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>rt maarif institute berkomitmen menjadi lembaga pembaruan pemikiran dan advokasi untuk mewujudkan praksis islam sehingga</t>
+          <t>rt demi menjaga kelangsungan hidup kita semua semangat solidaritas sosial dan saling membantu perlu selalu diingatkan</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>['rt', 'maarif', 'institute', 'berkomitmen', 'menjadi', 'lembaga', 'pembaruan', 'pemikiran', 'dan', 'advokasi', 'untuk', 'mewujudkan', 'praksis', 'islam', 'sehingga']</t>
+          <t>['rt', 'demi', 'menjaga', 'kelangsungan', 'hidup', 'kita', 'semua', 'semangat', 'solidaritas', 'sosial', 'dan', 'saling', 'membantu', 'perlu', 'selalu', 'diingatkan']</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['rt', 'demi', 'menjaga', 'kelangsungan', 'hidup', 'kita', 'semua', 'semangat', 'solidaritas', 'sosial', 'dan', 'saling', 'membantu', 'perlu', 'selalu', 'diingatkan']</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>['maarif', 'institute', 'berkomitmen', 'lembaga', 'pembaruan', 'pemikiran', 'advokasi', 'mewujudkan', 'praksis', 'islam']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>['maarif', 'institute', 'komitmen', 'lembaga', 'baru', 'pikir', 'advokasi', 'wujud', 'praksis', 'islam']</t>
+          <t>['menjaga', 'kelangsungan', 'hidup', 'semangat', 'solidaritas', 'sosial', 'membantu']</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>['jaga', 'langsung', 'hidup', 'semangat', 'solidaritas', 'sosial', 'bantu']</t>
         </is>
       </c>
     </row>
@@ -3247,34 +3637,39 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>14427</v>
+        <v>29925</v>
       </c>
       <c r="C79" t="n">
-        <v>184</v>
+        <v>349</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t xml:space="preserve">rt mafia migas  hampir di seantero bumn ada mafianya perusahaan migas karena termasuk yang terbesar selalu </t>
+          <t>rt seorang pemimpin sejati harus berani mengambi risiko atas segala keputusan yang dibuatnya</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>['rt', 'mafia', 'migas', 'hampir', 'di', 'seantero', 'bumn', 'ada', 'mafianya', 'perusahaan', 'migas', 'karena', 'termasuk', 'yang', 'terbesar', 'selalu']</t>
+          <t>['rt', 'seorang', 'pemimpin', 'sejati', 'harus', 'berani', 'mengambi', 'risiko', 'atas', 'segala', 'keputusan', 'yang', 'dibuatnya']</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
+          <t>['rt', 'seorang', 'pemimpin', 'sejati', 'harus', 'berani', 'mengambi', 'risiko', 'atas', 'segala', 'keputusan', 'yang', 'dibuatnya']</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>['mafia', 'migas', 'seantero', 'bumn', 'mafianya', 'perusahaan', 'migas', 'terbesar']</t>
+          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>['mafia', 'migas', 'antero', 'bumn', 'mafia', 'usaha', 'migas', 'besar']</t>
+          <t>['pemimpin', 'sejati', 'berani', 'mengambi', 'risiko', 'keputusan']</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>['pimpin', 'sejati', 'berani', 'ambi', 'risiko', 'putus']</t>
         </is>
       </c>
     </row>
@@ -3283,34 +3678,39 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>14428</v>
+        <v>29926</v>
       </c>
       <c r="C80" t="n">
-        <v>184</v>
+        <v>349</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>rt republika tidak bisa lepas dari cendikiawan muslim di indonesia termasuk cendikiawan muhammadiyah di dalamnya</t>
+          <t>rt inilah dunia tempat kita bermukim sementara untuk kita pelihara bersama bukan untuk ditaklukkan</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>['rt', 'republika', 'tidak', 'bisa', 'lepas', 'dari', 'cendikiawan', 'muslim', 'di', 'indonesia', 'termasuk', 'cendikiawan', 'muhammadiyah', 'di', 'dalamnya']</t>
+          <t>['rt', 'inilah', 'dunia', 'tempat', 'kita', 'bermukim', 'sementara', 'untuk', 'kita', 'pelihara', 'bersama', 'bukan', 'untuk', 'ditaklukkan']</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 15 outcomes&gt;</t>
+          <t>['rt', 'inilah', 'dunia', 'tempat', 'kita', 'bermukim', 'sementara', 'untuk', 'kita', 'pelihara', 'bersama', 'bukan', 'untuk', 'ditaklukkan']</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>['republika', 'lepas', 'cendikiawan', 'muslim', 'indonesia', 'cendikiawan', 'muhammadiyah', 'dalamnya']</t>
+          <t>&lt;FreqDist with 12 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>['republika', 'lepas', 'cendikiawan', 'muslim', 'indonesia', 'cendikiawan', 'muhammadiyah', 'dalam']</t>
+          <t>['dunia', 'bermukim', 'pelihara', 'ditaklukkan']</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>['dunia', 'mukim', 'pelihara', 'takluk']</t>
         </is>
       </c>
     </row>
@@ -3319,34 +3719,39 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>14429</v>
+        <v>29927</v>
       </c>
       <c r="C81" t="n">
-        <v>184</v>
+        <v>349</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t xml:space="preserve">rt republika dan intelektual muhammadiyah opini saya hari ini di koran republika apresiasi tahun republika semoga </t>
+          <t>rt disiplin mencuci tangan dgn sabun dan air mengalir bisa menaklukkannya saya setuju dgn bill gates agar umat manusia he</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>['rt', 'republika', 'dan', 'intelektual', 'muhammadiyah', 'opini', 'saya', 'hari', 'ini', 'di', 'koran', 'republika', 'apresiasi', 'tahun', 'republika', 'semoga']</t>
+          <t>['rt', 'disiplin', 'mencuci', 'tangan', 'dgn', 'sabun', 'dan', 'air', 'mengalir', 'bisa', 'menaklukkannya', 'saya', 'setuju', 'dgn', 'bill', 'gates', 'agar', 'umat', 'manusia', 'he']</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 16 outcomes&gt;</t>
+          <t>['rt', 'disiplin', 'mencuci', 'tangan', 'dengan', 'sabun', 'dan', 'air', 'mengalir', 'bisa', 'menaklukkannya', 'saya', 'setuju', 'dengan', 'bon', 'gates', 'agar', 'umat', 'manusia', 'he']</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>['republika', 'intelektual', 'muhammadiyah', 'opini', 'koran', 'republika', 'apresiasi', 'republika', 'semoga']</t>
+          <t>&lt;FreqDist with 19 samples and 20 outcomes&gt;</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>['republika', 'intelektual', 'muhammadiyah', 'opini', 'koran', 'republika', 'apresiasi', 'republika', 'moga']</t>
+          <t>['disiplin', 'mencuci', 'tangan', 'sabun', 'air', 'mengalir', 'menaklukkannya', 'setuju', 'bon', 'gates', 'umat', 'manusia', 'he']</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>['disiplin', 'cuci', 'tangan', 'sabun', 'air', 'alir', 'takluk', 'tuju', 'bon', 'gates', 'umat', 'manusia', 'he']</t>
         </is>
       </c>
     </row>
@@ -3355,34 +3760,39 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>14430</v>
+        <v>29928</v>
       </c>
       <c r="C82" t="n">
-        <v>184</v>
+        <v>349</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>excellent article</t>
+          <t>rt pesan kemanusiaan untuk kita semua</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>['excellent', 'article']</t>
+          <t>['rt', 'pesan', 'kemanusiaan', 'untuk', 'kita', 'semua']</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['rt', 'pesan', 'kemanusiaan', 'untuk', 'kita', 'semua']</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>['excellent', 'article']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>['excellent', 'article']</t>
+          <t>['pesan', 'kemanusiaan']</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>['pesan', 'manusia']</t>
         </is>
       </c>
     </row>
@@ -3391,34 +3801,39 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>14431</v>
+        <v>29929</v>
       </c>
       <c r="C83" t="n">
-        <v>184</v>
+        <v>349</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>rt muhammadiyah sruweng kelompok kecil yang kaya gagasan  oleh ahmad syafii maarif  resonansi republika januari</t>
+          <t>demi menjaga kelangsungan hidup kita semua semangat solidaritas sosial dan saling membantu perlu selalu diingatka</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>['rt', 'muhammadiyah', 'sruweng', 'kelompok', 'kecil', 'yang', 'kaya', 'gagasan', 'oleh', 'ahmad', 'syafii', 'maarif', 'resonansi', 'republika', 'januari']</t>
+          <t>['demi', 'menjaga', 'kelangsungan', 'hidup', 'kita', 'semua', 'semangat', 'solidaritas', 'sosial', 'dan', 'saling', 'membantu', 'perlu', 'selalu', 'diingatka']</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
+          <t>['demi', 'menjaga', 'kelangsungan', 'hidup', 'kita', 'semua', 'semangat', 'solidaritas', 'sosial', 'dan', 'saling', 'membantu', 'perlu', 'selalu', 'diingatka']</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>['muhammadiyah', 'sruweng', 'kelompok', 'kaya', 'gagasan', 'ahmad', 'syafii', 'maarif', 'resonansi', 'republika', 'januari']</t>
-        </is>
-      </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>['muhammadiyah', 'sruweng', 'kelompok', 'kaya', 'gagas', 'ahmad', 'syafii', 'maarif', 'resonansi', 'republika', 'januari']</t>
+          <t>['menjaga', 'kelangsungan', 'hidup', 'semangat', 'solidaritas', 'sosial', 'membantu', 'diingatka']</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>['jaga', 'langsung', 'hidup', 'semangat', 'solidaritas', 'sosial', 'bantu', 'diingatka']</t>
         </is>
       </c>
     </row>
@@ -3427,34 +3842,39 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>14432</v>
+        <v>29930</v>
       </c>
       <c r="C84" t="n">
-        <v>184</v>
+        <v>349</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>rt membaca kisah buya yunahar dan ini membuat kita larut dalam rasa haru bahkan sampai menitikkan air mata http</t>
+          <t>rt yang mudamuda harus mengerti betul persoalan bangsa berbasis data banyak membaca dan ikut terlibat membenahi negeri</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>['rt', 'membaca', 'kisah', 'buya', 'yunahar', 'dan', 'ini', 'membuat', 'kita', 'larut', 'dalam', 'rasa', 'haru', 'bahkan', 'sampai', 'menitikkan', 'air', 'mata', 'http']</t>
+          <t>['rt', 'yang', 'mudamuda', 'harus', 'mengerti', 'betul', 'persoalan', 'bangsa', 'berbasis', 'data', 'banyak', 'membaca', 'dan', 'ikut', 'terlibat', 'membenahi', 'negeri']</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
+          <t>['rt', 'yang', 'mudamuda', 'harus', 'mengerti', 'betul', 'persoalan', 'bangsa', 'berbasis', 'data', 'banyak', 'membaca', 'dan', 'ikut', 'terlibat', 'membenahi', 'negeri']</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>['membaca', 'kisah', 'buya', 'yunahar', 'larut', 'haru', 'menitikkan', 'air', 'mata', 'http']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>['baca', 'kisah', 'buya', 'yunahar', 'larut', 'haru', 'titik', 'air', 'mata', 'http']</t>
+          <t>['mudamuda', 'mengerti', 'bangsa', 'berbasis', 'data', 'membaca', 'terlibat', 'membenahi', 'negeri']</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>['mudamuda', 'erti', 'bangsa', 'bas', 'data', 'baca', 'libat', 'benah', 'negeri']</t>
         </is>
       </c>
     </row>
@@ -3463,34 +3883,39 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>14433</v>
+        <v>29931</v>
       </c>
       <c r="C85" t="n">
-        <v>184</v>
+        <v>349</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>rt muhammadiyah sruweng kelompok kecil yang kaya gagasan  oleh ahmad syafii maarif https</t>
+          <t>rt terima kasih atas partisipasi dan rekomendasi masyarakat indonesia untuk para calon penerima maarif award dewan</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>['rt', 'muhammadiyah', 'sruweng', 'kelompok', 'kecil', 'yang', 'kaya', 'gagasan', 'oleh', 'ahmad', 'syafii', 'maarif', 'https']</t>
+          <t>['rt', 'terima', 'kasih', 'atas', 'partisipasi', 'dan', 'rekomendasi', 'masyarakat', 'indonesia', 'untuk', 'para', 'calon', 'penerima', 'maarif', 'award', 'dewan']</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
+          <t>['rt', 'terima', 'kasih', 'atas', 'partisipasi', 'dan', 'rekomendasi', 'masyarakat', 'indonesia', 'untuk', 'para', 'calon', 'penerima', 'maarif', 'award', 'dewan']</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>['muhammadiyah', 'sruweng', 'kelompok', 'kaya', 'gagasan', 'ahmad', 'syafii', 'maarif', 'https']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>['muhammadiyah', 'sruweng', 'kelompok', 'kaya', 'gagas', 'ahmad', 'syafii', 'maarif', 'https']</t>
+          <t>['terima', 'kasih', 'partisipasi', 'rekomendasi', 'masyarakat', 'indonesia', 'calon', 'penerima', 'maarif', 'award', 'dewan']</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>['terima', 'kasih', 'partisipasi', 'rekomendasi', 'masyarakat', 'indonesia', 'calon', 'terima', 'maarif', 'award', 'dewan']</t>
         </is>
       </c>
     </row>
@@ -3499,34 +3924,39 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>14434</v>
+        <v>29932</v>
       </c>
       <c r="C86" t="n">
-        <v>184</v>
+        <v>349</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t xml:space="preserve">rt dia mengusung islam wasatiyyah yang tidak ekstrem ke kanan dan tidak ekstrem ke kiri ini penting untuk indonesia masa </t>
+          <t>rt rancak otak jangan nganggur kata</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>['rt', 'dia', 'mengusung', 'islam', 'wasatiyyah', 'yang', 'tidak', 'ekstrem', 'ke', 'kanan', 'dan', 'tidak', 'ekstrem', 'ke', 'kiri', 'ini', 'penting', 'untuk', 'indonesia', 'masa']</t>
+          <t>['rt', 'rancak', 'otak', 'jangan', 'nganggur', 'kata']</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 20 outcomes&gt;</t>
+          <t>['rt', 'rancak', 'otak', 'jangan', 'menganggur', 'kata']</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>['mengusung', 'islam', 'wasatiyyah', 'ekstrem', 'kanan', 'ekstrem', 'kiri', 'indonesia']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>['usung', 'islam', 'wasatiyyah', 'ekstrem', 'kanan', 'ekstrem', 'kiri', 'indonesia']</t>
+          <t>['rancak', 'otak', 'menganggur']</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>['rancak', 'otak', 'anggur']</t>
         </is>
       </c>
     </row>
@@ -3535,34 +3965,39 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>14435</v>
+        <v>29933</v>
       </c>
       <c r="C87" t="n">
-        <v>184</v>
+        <v>349</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t xml:space="preserve">rt muhammadiyah kini kehilangan sosok yang telah ikut merumuskan dan memberi pondasi nilainilai islam terhadap rumusan </t>
+          <t>rt cak nur bersama pada suatu pertemuan</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>['rt', 'muhammadiyah', 'kini', 'kehilangan', 'sosok', 'yang', 'telah', 'ikut', 'merumuskan', 'dan', 'memberi', 'pondasi', 'nilainilai', 'islam', 'terhadap', 'rumusan']</t>
+          <t>['rt', 'cak', 'nur', 'bersama', 'pada', 'suatu', 'pertemuan']</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['rt', 'cak', 'nur', 'bersama', 'pada', 'suatu', 'pertemuan']</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>['muhammadiyah', 'kehilangan', 'sosok', 'merumuskan', 'pondasi', 'nilainilai', 'islam', 'rumusan']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>['muhammadiyah', 'hilang', 'sosok', 'rumus', 'pondasi', 'nilainilai', 'islam', 'rumus']</t>
+          <t>['cak', 'nur', 'pertemuan']</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>['cak', 'nur', 'temu']</t>
         </is>
       </c>
     </row>
@@ -3571,34 +4006,39 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>14436</v>
+        <v>29934</v>
       </c>
       <c r="C88" t="n">
-        <v>184</v>
+        <v>349</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>rt salat jenazah almarhum buya yunahar di pp muhammadiyah yogya setelah itu juga turut ke masjid gedhe kaum</t>
+          <t>rt ekstremisme dalam penafsiran kitab suci dan penawarnya artikel nahrowi sangat mencerahkan buya syafii maarif https</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>['rt', 'salat', 'jenazah', 'almarhum', 'buya', 'yunahar', 'di', 'pp', 'muhammadiyah', 'yogya', 'setelah', 'itu', 'juga', 'turut', 'ke', 'masjid', 'gedhe', 'kaum']</t>
+          <t>['rt', 'ekstremisme', 'dalam', 'penafsiran', 'kitab', 'suci', 'dan', 'penawarnya', 'artikel', 'nahrowi', 'sangat', 'mencerahkan', 'buya', 'syafii', 'maarif', 'https']</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
+          <t>['rt', 'ekstremisme', 'dalam', 'penafsiran', 'kitab', 'suci', 'dan', 'penawarnya', 'artikel', 'nahrowi', 'sangat', 'mencerahkan', 'buya', 'syafii', 'maarif', 'hypertext, transfer, protocol, over, secure, socket, layer']</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>['salat', 'jenazah', 'almarhum', 'buya', 'yunahar', 'pp', 'muhammadiyah', 'yogya', 'masjid', 'gedhe', 'kaum']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>['salat', 'jenazah', 'almarhum', 'buya', 'yunahar', 'pp', 'muhammadiyah', 'yogya', 'masjid', 'gedhe', 'kaum']</t>
+          <t>['ekstremisme', 'penafsiran', 'kitab', 'suci', 'penawarnya', 'artikel', 'nahrowi', 'mencerahkan', 'buya', 'syafii', 'maarif', 'hypertext, transfer, protocol, over, secure, socket, layer']</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>['ekstrem', 'tafsir', 'kitab', 'suci', 'tawar', 'artikel', 'nahrowi', 'cerah', 'buya', 'syafii', 'maarif', 'hypertext transfer protocol over secure socket layer']</t>
         </is>
       </c>
     </row>
@@ -3607,34 +4047,39 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>14437</v>
+        <v>29935</v>
       </c>
       <c r="C89" t="n">
-        <v>184</v>
+        <v>349</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>rt sosok yunahar ilyas di mata</t>
+          <t>rt maarif award berkas pencalonan individu maupun lembaga dikirim selambatlambatnya tanggal februari peng</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>['rt', 'sosok', 'yunahar', 'ilyas', 'di', 'mata']</t>
+          <t>['rt', 'maarif', 'award', 'berkas', 'pencalonan', 'individu', 'maupun', 'lembaga', 'dikirim', 'selambatlambatnya', 'tanggal', 'februari', 'peng']</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['rt', 'maarif', 'award', 'berkas', 'pencalonan', 'individu', 'maupun', 'lembaga', 'dikirim', 'selambatlambatnya', 'tanggal', 'februari', 'peng']</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>['sosok', 'yunahar', 'ilyas', 'mata']</t>
+          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>['sosok', 'yunahar', 'ilyas', 'mata']</t>
+          <t>['maarif', 'award', 'berkas', 'pencalonan', 'individu', 'lembaga', 'dikirim', 'selambatlambatnya', 'tanggal', 'februari', 'peng']</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>['maarif', 'award', 'berkas', 'calon', 'individu', 'lembaga', 'kirim', 'selambatlambatnya', 'tanggal', 'februari', 'peng']</t>
         </is>
       </c>
     </row>
@@ -3643,34 +4088,39 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>14438</v>
+        <v>29936</v>
       </c>
       <c r="C90" t="n">
-        <v>184</v>
+        <v>349</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>baru saja mengirim foto</t>
+          <t>rt peluncuran dan diskusi jurnal maarif edisi terbaru memperkuat kembali moderatisme muhammadiyah konsepsi interpretas</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>['baru', 'saja', 'mengirim', 'foto']</t>
+          <t>['rt', 'peluncuran', 'dan', 'diskusi', 'jurnal', 'maarif', 'edisi', 'terbaru', 'memperkuat', 'kembali', 'moderatisme', 'muhammadiyah', 'konsepsi', 'interpretas']</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['rt', 'peluncuran', 'dan', 'diskusi', 'jurnal', 'maarif', 'edisi', 'terbaru', 'memperkuat', 'kembali', 'moderatisme', 'muhammadiyah', 'konsepsi', 'interpretas']</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>['mengirim', 'foto']</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>['kirim', 'foto']</t>
+          <t>['peluncuran', 'diskusi', 'jurnal', 'maarif', 'edisi', 'terbaru', 'memperkuat', 'moderatisme', 'muhammadiyah', 'konsepsi', 'interpretas']</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>['luncur', 'diskusi', 'jurnal', 'maarif', 'edisi', 'baru', 'kuat', 'moderat', 'muhammadiyah', 'konsepsi', 'interpretas']</t>
         </is>
       </c>
     </row>
@@ -3679,34 +4129,39 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>14439</v>
+        <v>29937</v>
       </c>
       <c r="C91" t="n">
-        <v>184</v>
+        <v>349</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>rt muhammadiyah sungguh kehilangan figur ulama yang santun dan menjunjung akhlak mulia selain itu almarhum juga meningga</t>
+          <t>rt dalam usia sudah larut ini agenda utamaku adalah turut berbuat sesuatu betapapun kecilnya agar indonesia sebagai se</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>['rt', 'muhammadiyah', 'sungguh', 'kehilangan', 'figur', 'ulama', 'yang', 'santun', 'dan', 'menjunjung', 'akhlak', 'mulia', 'selain', 'itu', 'almarhum', 'juga', 'meningga']</t>
+          <t>['rt', 'dalam', 'usia', 'sudah', 'larut', 'ini', 'agenda', 'utamaku', 'adalah', 'turut', 'berbuat', 'sesuatu', 'betapapun', 'kecilnya', 'agar', 'indonesia', 'sebagai', 'se']</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['rt', 'dalam', 'usia', 'sudah', 'larut', 'ini', 'agenda', 'utamaku', 'adalah', 'turut', 'berbuat', 'sesuatu', 'betapapun', 'kecilnya', 'agar', 'indonesia', 'sebagai', 'se']</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>['muhammadiyah', 'sungguh', 'kehilangan', 'figur', 'ulama', 'santun', 'menjunjung', 'akhlak', 'mulia', 'almarhum', 'meningga']</t>
+          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>['muhammadiyah', 'sungguh', 'hilang', 'figur', 'ulama', 'santun', 'junjung', 'akhlak', 'mulia', 'almarhum', 'meningga']</t>
+          <t>['usia', 'larut', 'agenda', 'utamaku', 'berbuat', 'betapapun', 'kecilnya', 'indonesia']</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>['usia', 'larut', 'agenda', 'utama', 'buat', 'betapa', 'kecil', 'indonesia']</t>
         </is>
       </c>
     </row>
@@ -3715,34 +4170,39 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>14440</v>
+        <v>29938</v>
       </c>
       <c r="C92" t="n">
-        <v>184</v>
+        <v>349</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>rt kita semua berduka prof yunahar ilyas ulamapemikir telah berpulang semoga husnul khotimah</t>
+          <t>rt sila simak pekan ini tentang prri ii</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>['rt', 'kita', 'semua', 'berduka', 'prof', 'yunahar', 'ilyas', 'ulamapemikir', 'telah', 'berpulang', 'semoga', 'husnul', 'khotimah']</t>
+          <t>['rt', 'sila', 'simak', 'pekan', 'ini', 'tentang', 'prri', 'ii']</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
+          <t>['rt', 'sila', 'simak', 'pekan', 'ini', 'tentang', 'pemerintahan, revolusioner, republik, indonesia', 'ih']</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>['berduka', 'prof', 'yunahar', 'ilyas', 'ulamapemikir', 'berpulang', 'semoga', 'husnul', 'khotimah']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>['duka', 'prof', 'yunahar', 'ilyas', 'ulamapemikir', 'pulang', 'moga', 'husnul', 'khotimah']</t>
+          <t>['sila', 'simak', 'pekan', 'pemerintahan, revolusioner, republik, indonesia', 'ih']</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>['sila', 'simak', 'pekan', 'perintah revolusioner republik indonesia', 'ih']</t>
         </is>
       </c>
     </row>
@@ -3751,34 +4211,39 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>14441</v>
+        <v>29939</v>
       </c>
       <c r="C93" t="n">
-        <v>184</v>
+        <v>349</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>rt ini pesanpesan penuh makna dari</t>
+          <t>rt serambi buya jejak langkah dan inspirasi buya syafii maarif</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>['rt', 'ini', 'pesanpesan', 'penuh', 'makna', 'dari']</t>
+          <t>['rt', 'serambi', 'buya', 'jejak', 'langkah', 'dan', 'inspirasi', 'buya', 'syafii', 'maarif']</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['rt', 'serambi', 'buya', 'jejak', 'langkah', 'dan', 'inspirasi', 'buya', 'syafii', 'maarif']</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>['pesanpesan', 'penuh', 'makna']</t>
+          <t>&lt;FreqDist with 9 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>['pesanpesan', 'penuh', 'makna']</t>
+          <t>['serambi', 'buya', 'jejak', 'langkah', 'inspirasi', 'buya', 'syafii', 'maarif']</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>['serambi', 'buya', 'jejak', 'langkah', 'inspirasi', 'buya', 'syafii', 'maarif']</t>
         </is>
       </c>
     </row>
@@ -3787,34 +4252,39 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>14442</v>
+        <v>29940</v>
       </c>
       <c r="C94" t="n">
-        <v>184</v>
+        <v>349</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>rt innalilahi wainna ilaihi rajiun telah meninggal dunia prof dr kh yunahar ilyaslc ketua pimpinan pusat muhammadiya</t>
+          <t>rt baca sejarahmu</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>['rt', 'innalilahi', 'wainna', 'ilaihi', 'rajiun', 'telah', 'meninggal', 'dunia', 'prof', 'dr', 'kh', 'yunahar', 'ilyaslc', 'ketua', 'pimpinan', 'pusat', 'muhammadiya']</t>
+          <t>['rt', 'baca', 'sejarahmu']</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['rt', 'baca', 'sejarahmu']</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>['innalilahi', 'wainna', 'ilaihi', 'rajiun', 'meninggal', 'dunia', 'prof', 'dr', 'kh', 'yunahar', 'ilyaslc', 'ketua', 'pimpinan', 'pusat', 'muhammadiya']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>['innalilahi', 'wainna', 'ilaihi', 'rajiun', 'tinggal', 'dunia', 'prof', 'dr', 'kh', 'yunahar', 'ilyaslc', 'ketua', 'pimpin', 'pusat', 'muhammadiya']</t>
+          <t>['baca', 'sejarahmu']</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>['baca', 'sejarah']</t>
         </is>
       </c>
     </row>
@@ -3823,34 +4293,39 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>14443</v>
+        <v>29941</v>
       </c>
       <c r="C95" t="n">
-        <v>184</v>
+        <v>349</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>seluruh keluarga besar muhammadiyah umat islam dan warga bangsa kehilangan prof yunahar ilyas yang meninggal pada</t>
+          <t>rt kembali di gelar temukan dan calonkan tokoh lokal yang konsisten memperjuangkan kemanusiaan nilai</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>['seluruh', 'keluarga', 'besar', 'muhammadiyah', 'umat', 'islam', 'dan', 'warga', 'bangsa', 'kehilangan', 'prof', 'yunahar', 'ilyas', 'yang', 'meninggal', 'pada']</t>
+          <t>['rt', 'kembali', 'di', 'gelar', 'temukan', 'dan', 'calonkan', 'tokoh', 'lokal', 'yang', 'konsisten', 'memperjuangkan', 'kemanusiaan', 'nilai']</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['rt', 'kembali', 'di', 'gelar', 'temukan', 'dan', 'calonkan', 'tokoh', 'lokal', 'yang', 'konsisten', 'memperjuangkan', 'kemanusiaan', 'nilai']</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>['keluarga', 'muhammadiyah', 'umat', 'islam', 'warga', 'bangsa', 'kehilangan', 'prof', 'yunahar', 'ilyas', 'meninggal']</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>['keluarga', 'muhammadiyah', 'umat', 'islam', 'warga', 'bangsa', 'hilang', 'prof', 'yunahar', 'ilyas', 'tinggal']</t>
+          <t>['gelar', 'temukan', 'calonkan', 'tokoh', 'lokal', 'konsisten', 'memperjuangkan', 'kemanusiaan', 'nilai']</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>['gelar', 'temu', 'calon', 'tokoh', 'lokal', 'konsisten', 'juang', 'manusia', 'nilai']</t>
         </is>
       </c>
     </row>
@@ -3859,34 +4334,39 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>14444</v>
+        <v>29942</v>
       </c>
       <c r="C96" t="n">
-        <v>184</v>
+        <v>349</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>rt sekolah kebudayaan dan kemanusiaan buya syafii perspektif anak muda</t>
+          <t>rt assalamualaikum dan selamat pagi mari baca resonansi buya syafii prri harian republika</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>['rt', 'sekolah', 'kebudayaan', 'dan', 'kemanusiaan', 'buya', 'syafii', 'perspektif', 'anak', 'muda']</t>
+          <t>['rt', 'assalamualaikum', 'dan', 'selamat', 'pagi', 'mari', 'baca', 'resonansi', 'buya', 'syafii', 'prri', 'harian', 'republika']</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
+          <t>['rt', 'assalamualaikum', 'dan', 'selamat', 'pagi', 'mari', 'baca', 'resonansi', 'buya', 'syafii', 'pemerintahan, revolusioner, republik, indonesia', 'harian', 'republika']</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>['sekolah', 'kebudayaan', 'kemanusiaan', 'buya', 'syafii', 'perspektif', 'anak', 'muda']</t>
+          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>['sekolah', 'budaya', 'manusia', 'buya', 'syafii', 'perspektif', 'anak', 'muda']</t>
+          <t>['assalamualaikum', 'selamat', 'pagi', 'mari', 'baca', 'resonansi', 'buya', 'syafii', 'pemerintahan, revolusioner, republik, indonesia', 'harian', 'republika']</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>['assalamualaikum', 'selamat', 'pagi', 'mari', 'baca', 'resonansi', 'buya', 'syafii', 'perintah revolusioner republik indonesia', 'hari', 'republika']</t>
         </is>
       </c>
     </row>
@@ -3895,34 +4375,39 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>14445</v>
+        <v>29943</v>
       </c>
       <c r="C97" t="n">
-        <v>184</v>
+        <v>349</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>rt keluarga besar for and mengucapkan selamat bagi saudara yang me</t>
+          <t>rt kembali di gelar temukan dan calonkan tokoh lokal yang konsisten memperjuangkan kemanusiaan nilai</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>['rt', 'keluarga', 'besar', 'for', 'and', 'mengucapkan', 'selamat', 'bagi', 'saudara', 'yang', 'me']</t>
+          <t>['rt', 'kembali', 'di', 'gelar', 'temukan', 'dan', 'calonkan', 'tokoh', 'lokal', 'yang', 'konsisten', 'memperjuangkan', 'kemanusiaan', 'nilai']</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
+          <t>['rt', 'kembali', 'di', 'gelar', 'temukan', 'dan', 'calonkan', 'tokoh', 'lokal', 'yang', 'konsisten', 'memperjuangkan', 'kemanusiaan', 'nilai']</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>['keluarga', 'for', 'and', 'selamat', 'saudara', 'me']</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>['keluarga', 'for', 'and', 'selamat', 'saudara', 'me']</t>
+          <t>['gelar', 'temukan', 'calonkan', 'tokoh', 'lokal', 'konsisten', 'memperjuangkan', 'kemanusiaan', 'nilai']</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>['gelar', 'temu', 'calon', 'tokoh', 'lokal', 'konsisten', 'juang', 'manusia', 'nilai']</t>
         </is>
       </c>
     </row>
@@ -3931,34 +4416,39 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>14446</v>
+        <v>29944</v>
       </c>
       <c r="C98" t="n">
-        <v>184</v>
+        <v>349</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>rt buya syafii maarif tiap tahun saya mengucapkan selamat natal</t>
+          <t>rt maarif award merupakan ikhtiar menemukan pribadipribadi penggerak dan tangguh yang berjuang untuk kemanusiaan di</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>['rt', 'buya', 'syafii', 'maarif', 'tiap', 'tahun', 'saya', 'mengucapkan', 'selamat', 'natal']</t>
+          <t>['rt', 'maarif', 'award', 'merupakan', 'ikhtiar', 'menemukan', 'pribadipribadi', 'penggerak', 'dan', 'tangguh', 'yang', 'berjuang', 'untuk', 'kemanusiaan', 'di']</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
+          <t>['rt', 'maarif', 'award', 'merupakan', 'ikhtiar', 'menemukan', 'pribadipribadi', 'penggerak', 'dan', 'tangguh', 'yang', 'berjuang', 'untuk', 'kemanusiaan', 'di']</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>['buya', 'syafii', 'maarif', 'selamat', 'natal']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>['buya', 'syafii', 'maarif', 'selamat', 'natal']</t>
+          <t>['maarif', 'award', 'ikhtiar', 'menemukan', 'pribadipribadi', 'penggerak', 'tangguh', 'berjuang', 'kemanusiaan']</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>['maarif', 'award', 'ikhtiar', 'temu', 'pribadipribadi', 'gerak', 'tangguh', 'juang', 'manusia']</t>
         </is>
       </c>
     </row>
@@ -3967,34 +4457,39 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>14447</v>
+        <v>29945</v>
       </c>
       <c r="C99" t="n">
-        <v>184</v>
+        <v>349</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>rt buya syafii kecewa politisi indonesia tak ada yang mau naik kelas jadi negarawan</t>
+          <t>rt saya sudah lama mengatakan umat muslim mundur karena kerapuhan dari dalam bukan terutama karena faktor luar dengan</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>['rt', 'buya', 'syafii', 'kecewa', 'politisi', 'indonesia', 'tak', 'ada', 'yang', 'mau', 'naik', 'kelas', 'jadi', 'negarawan']</t>
+          <t>['rt', 'saya', 'sudah', 'lama', 'mengatakan', 'umat', 'muslim', 'mundur', 'karena', 'kerapuhan', 'dari', 'dalam', 'bukan', 'terutama', 'karena', 'faktor', 'luar', 'dengan']</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>['rt', 'saya', 'sudah', 'lama', 'mengatakan', 'umat', 'muslim', 'mundur', 'karena', 'kerapuhan', 'dari', 'dalam', 'bukan', 'terutama', 'karena', 'faktor', 'luar', 'dengan']</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>['buya', 'syafii', 'kecewa', 'politisi', 'indonesia', 'kelas', 'negarawan']</t>
+          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>['buya', 'syafii', 'kecewa', 'politis', 'indonesia', 'kelas', 'negarawan']</t>
+          <t>['umat', 'muslim', 'mundur', 'kerapuhan', 'faktor']</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>['umat', 'muslim', 'mundur', 'rapuh', 'faktor']</t>
         </is>
       </c>
     </row>
@@ -4003,34 +4498,39 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>14448</v>
+        <v>29946</v>
       </c>
       <c r="C100" t="n">
-        <v>184</v>
+        <v>349</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>ternyata bahasa toni lincah juga saya dan bahtiar effendy lewat geotimes</t>
+          <t>rt indonesia berduka doa kami menyertai kepulangan gus sholah kepada dzat yang maha agung semoga khusnul khotimah</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>['ternyata', 'bahasa', 'toni', 'lincah', 'juga', 'saya', 'dan', 'bahtiar', 'effendy', 'lewat', 'geotimes']</t>
+          <t>['rt', 'indonesia', 'berduka', 'doa', 'kami', 'menyertai', 'kepulangan', 'gus', 'sholah', 'kepada', 'dzat', 'yang', 'maha', 'agung', 'semoga', 'khusnul', 'khotimah']</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
+          <t>['rt', 'indonesia', 'berduka', 'doa', 'kami', 'menyertai', 'kepulangan', 'gus', 'sholatu', 'kepada', 'zat', 'yang', 'maha', 'agung', 'semoga', 'khusnul', 'khotimah']</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>['bahasa', 'toni', 'lincah', 'bahtiar', 'effendy', 'geotimes']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>['bahasa', 'ton', 'lincah', 'bahtiar', 'effendy', 'geotimes']</t>
+          <t>['indonesia', 'berduka', 'doa', 'menyertai', 'kepulangan', 'gus', 'sholatu', 'zat', 'maha', 'agung', 'semoga', 'khusnul', 'khotimah']</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>['indonesia', 'duka', 'doa', 'serta', 'pulang', 'gus', 'sholatu', 'zat', 'maha', 'agung', 'moga', 'khusnul', 'khotimah']</t>
         </is>
       </c>
     </row>
@@ -4039,34 +4539,39 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>14449</v>
+        <v>29947</v>
       </c>
       <c r="C101" t="n">
-        <v>184</v>
+        <v>349</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>rt kolom peneliti senior tentang kang thowil dan siti marginal menemanimilad</t>
+          <t>rt mafia migas</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>['rt', 'kolom', 'peneliti', 'senior', 'tentang', 'kang', 'thowil', 'dan', 'siti', 'marginal', 'menemanimilad']</t>
+          <t>['rt', 'mafia', 'migas']</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
+          <t>['rt', 'mafia', 'migas']</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>['kolom', 'peneliti', 'senior', 'kang', 'thowil', 'siti', 'marginal', 'menemanimilad']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>['kolom', 'teliti', 'senior', 'kang', 'thowil', 'siti', 'marginal', 'menemanimilad']</t>
+          <t>['mafia', 'migas']</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>['mafia', 'migas']</t>
         </is>
       </c>
     </row>
